--- a/Code/Results/Cases/Case_1_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8446980928415202</v>
+        <v>0.8446980928415209</v>
       </c>
       <c r="D2">
         <v>1.023091368372433</v>
       </c>
       <c r="E2">
-        <v>0.8673127765218361</v>
+        <v>0.8673127765218367</v>
       </c>
       <c r="F2">
-        <v>0.8428373465923148</v>
+        <v>0.8428373465923154</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.04823588693434</v>
       </c>
       <c r="J2">
-        <v>0.8727760211159851</v>
+        <v>0.8727760211159856</v>
       </c>
       <c r="K2">
         <v>1.034238110779699</v>
       </c>
       <c r="L2">
-        <v>0.8809928084060165</v>
+        <v>0.8809928084060171</v>
       </c>
       <c r="M2">
-        <v>0.8570284852034911</v>
+        <v>0.8570284852034916</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8709823293449023</v>
+        <v>0.8709823293449038</v>
       </c>
       <c r="D3">
         <v>1.026656736711927</v>
       </c>
       <c r="E3">
-        <v>0.8905398653446926</v>
+        <v>0.8905398653446939</v>
       </c>
       <c r="F3">
-        <v>0.8703525555498</v>
+        <v>0.8703525555498016</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04955216868654</v>
+        <v>1.049552168686541</v>
       </c>
       <c r="J3">
-        <v>0.8957362804483301</v>
+        <v>0.8957362804483315</v>
       </c>
       <c r="K3">
         <v>1.036959532729952</v>
       </c>
       <c r="L3">
-        <v>0.9027955453800265</v>
+        <v>0.9027955453800278</v>
       </c>
       <c r="M3">
-        <v>0.8829655222976425</v>
+        <v>0.8829655222976444</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8860266201700524</v>
+        <v>0.8860266201700542</v>
       </c>
       <c r="D4">
-        <v>1.028866762049403</v>
+        <v>1.028866762049402</v>
       </c>
       <c r="E4">
-        <v>0.9038597758506898</v>
+        <v>0.9038597758506911</v>
       </c>
       <c r="F4">
-        <v>0.8861141476671883</v>
+        <v>0.88611414766719</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050346101611163</v>
+        <v>1.050346101611162</v>
       </c>
       <c r="J4">
-        <v>0.9088752316168901</v>
+        <v>0.9088752316168918</v>
       </c>
       <c r="K4">
-        <v>1.038628840114072</v>
+        <v>1.038628840114071</v>
       </c>
       <c r="L4">
-        <v>0.9152759999260933</v>
+        <v>0.9152759999260949</v>
       </c>
       <c r="M4">
-        <v>0.8978137684466164</v>
+        <v>0.8978137684466179</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8919830922499647</v>
+        <v>0.8919830922499653</v>
       </c>
       <c r="D5">
         <v>1.029773185199952</v>
       </c>
       <c r="E5">
-        <v>0.9091379062199626</v>
+        <v>0.9091379062199634</v>
       </c>
       <c r="F5">
-        <v>0.8923577305579647</v>
+        <v>0.8923577305579656</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.05066628811199</v>
       </c>
       <c r="J5">
-        <v>0.9140758628550318</v>
+        <v>0.9140758628550326</v>
       </c>
       <c r="K5">
         <v>1.039309142812777</v>
       </c>
       <c r="L5">
-        <v>0.9202164980703205</v>
+        <v>0.9202164980703212</v>
       </c>
       <c r="M5">
-        <v>0.9036931107902219</v>
+        <v>0.9036931107902226</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8929638605483848</v>
+        <v>0.8929638605483826</v>
       </c>
       <c r="D6">
         <v>1.029924063371672</v>
       </c>
       <c r="E6">
-        <v>0.9100072016681152</v>
+        <v>0.9100072016681131</v>
       </c>
       <c r="F6">
-        <v>0.89338595742798</v>
+        <v>0.8933859574279778</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.050719259225519</v>
       </c>
       <c r="J6">
-        <v>0.9149320736496399</v>
+        <v>0.9149320736496379</v>
       </c>
       <c r="K6">
         <v>1.039422122093321</v>
       </c>
       <c r="L6">
-        <v>0.9210299021922429</v>
+        <v>0.9210299021922409</v>
       </c>
       <c r="M6">
-        <v>0.904661204469883</v>
+        <v>0.9046612044698806</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8861075521149507</v>
+        <v>0.8861075521149516</v>
       </c>
       <c r="D7">
         <v>1.028878962103938</v>
       </c>
       <c r="E7">
-        <v>0.9039314752177824</v>
+        <v>0.9039314752177832</v>
       </c>
       <c r="F7">
-        <v>0.8861989681198618</v>
+        <v>0.8861989681198627</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050350433012134</v>
+        <v>1.050350433012133</v>
       </c>
       <c r="J7">
-        <v>0.9089459004939405</v>
+        <v>0.9089459004939412</v>
       </c>
       <c r="K7">
         <v>1.038638014144871</v>
       </c>
       <c r="L7">
-        <v>0.9153431323799718</v>
+        <v>0.9153431323799726</v>
       </c>
       <c r="M7">
-        <v>0.8978936506158604</v>
+        <v>0.8978936506158611</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8540644850356761</v>
+        <v>0.8540644850356787</v>
       </c>
       <c r="D8">
         <v>1.024316734034517</v>
       </c>
       <c r="E8">
-        <v>0.8755826530197709</v>
+        <v>0.8755826530197731</v>
       </c>
       <c r="F8">
-        <v>0.8526395991712029</v>
+        <v>0.8526395991712055</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.048692855248919</v>
       </c>
       <c r="J8">
-        <v>0.8809578940764929</v>
+        <v>0.8809578940764955</v>
       </c>
       <c r="K8">
         <v>1.035177093591588</v>
       </c>
       <c r="L8">
-        <v>0.8887609827586163</v>
+        <v>0.8887609827586186</v>
       </c>
       <c r="M8">
-        <v>0.8662704311234946</v>
+        <v>0.8662704311234972</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7728644609999612</v>
+        <v>0.7728644609999634</v>
       </c>
       <c r="D9">
         <v>1.015507248178864</v>
       </c>
       <c r="E9">
-        <v>0.804220986495122</v>
+        <v>0.8042209864951241</v>
       </c>
       <c r="F9">
-        <v>0.7677173668597187</v>
+        <v>0.767717366859721</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J9">
-        <v>0.8101023285542779</v>
+        <v>0.8101023285542802</v>
       </c>
       <c r="K9">
         <v>1.028353643349236</v>
       </c>
       <c r="L9">
-        <v>0.8215565010329015</v>
+        <v>0.8215565010329036</v>
       </c>
       <c r="M9">
-        <v>0.7861787064588134</v>
+        <v>0.7861787064588158</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7728644609999612</v>
+        <v>0.7728644609999634</v>
       </c>
       <c r="D10">
         <v>1.015507248178864</v>
       </c>
       <c r="E10">
-        <v>0.804220986495122</v>
+        <v>0.8042209864951241</v>
       </c>
       <c r="F10">
-        <v>0.7677173668597187</v>
+        <v>0.767717366859721</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J10">
-        <v>0.8101023285542779</v>
+        <v>0.8101023285542802</v>
       </c>
       <c r="K10">
         <v>1.028353643349236</v>
       </c>
       <c r="L10">
-        <v>0.8215565010329015</v>
+        <v>0.8215565010329036</v>
       </c>
       <c r="M10">
-        <v>0.7861787064588134</v>
+        <v>0.7861787064588158</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7728644609999612</v>
+        <v>0.7728644609999634</v>
       </c>
       <c r="D11">
         <v>1.015507248178864</v>
       </c>
       <c r="E11">
-        <v>0.804220986495122</v>
+        <v>0.8042209864951241</v>
       </c>
       <c r="F11">
-        <v>0.7677173668597187</v>
+        <v>0.767717366859721</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J11">
-        <v>0.8101023285542779</v>
+        <v>0.8101023285542802</v>
       </c>
       <c r="K11">
         <v>1.028353643349236</v>
       </c>
       <c r="L11">
-        <v>0.8215565010329015</v>
+        <v>0.8215565010329036</v>
       </c>
       <c r="M11">
-        <v>0.7861787064588134</v>
+        <v>0.7861787064588158</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7728644609999612</v>
+        <v>0.7728644609999634</v>
       </c>
       <c r="D12">
         <v>1.015507248178864</v>
       </c>
       <c r="E12">
-        <v>0.804220986495122</v>
+        <v>0.8042209864951241</v>
       </c>
       <c r="F12">
-        <v>0.7677173668597187</v>
+        <v>0.767717366859721</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J12">
-        <v>0.8101023285542779</v>
+        <v>0.8101023285542802</v>
       </c>
       <c r="K12">
         <v>1.028353643349236</v>
       </c>
       <c r="L12">
-        <v>0.8215565010329015</v>
+        <v>0.8215565010329036</v>
       </c>
       <c r="M12">
-        <v>0.7861787064588134</v>
+        <v>0.7861787064588158</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7728644609999612</v>
+        <v>0.7728644609999634</v>
       </c>
       <c r="D13">
         <v>1.015507248178864</v>
       </c>
       <c r="E13">
-        <v>0.804220986495122</v>
+        <v>0.8042209864951241</v>
       </c>
       <c r="F13">
-        <v>0.7677173668597187</v>
+        <v>0.767717366859721</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J13">
-        <v>0.8101023285542779</v>
+        <v>0.8101023285542802</v>
       </c>
       <c r="K13">
         <v>1.028353643349236</v>
       </c>
       <c r="L13">
-        <v>0.8215565010329015</v>
+        <v>0.8215565010329036</v>
       </c>
       <c r="M13">
-        <v>0.7861787064588134</v>
+        <v>0.7861787064588158</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7728644609999612</v>
+        <v>0.7728644609999634</v>
       </c>
       <c r="D14">
         <v>1.015507248178864</v>
       </c>
       <c r="E14">
-        <v>0.804220986495122</v>
+        <v>0.8042209864951241</v>
       </c>
       <c r="F14">
-        <v>0.7677173668597187</v>
+        <v>0.767717366859721</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J14">
-        <v>0.8101023285542779</v>
+        <v>0.8101023285542802</v>
       </c>
       <c r="K14">
         <v>1.028353643349236</v>
       </c>
       <c r="L14">
-        <v>0.8215565010329015</v>
+        <v>0.8215565010329036</v>
       </c>
       <c r="M14">
-        <v>0.7861787064588134</v>
+        <v>0.7861787064588158</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7728644609999612</v>
+        <v>0.7728644609999634</v>
       </c>
       <c r="D15">
         <v>1.015507248178864</v>
       </c>
       <c r="E15">
-        <v>0.804220986495122</v>
+        <v>0.8042209864951241</v>
       </c>
       <c r="F15">
-        <v>0.7677173668597187</v>
+        <v>0.767717366859721</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J15">
-        <v>0.8101023285542779</v>
+        <v>0.8101023285542802</v>
       </c>
       <c r="K15">
         <v>1.028353643349236</v>
       </c>
       <c r="L15">
-        <v>0.8215565010329015</v>
+        <v>0.8215565010329036</v>
       </c>
       <c r="M15">
-        <v>0.7861787064588134</v>
+        <v>0.7861787064588158</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7728644609999612</v>
+        <v>0.7728644609999634</v>
       </c>
       <c r="D16">
         <v>1.015507248178864</v>
       </c>
       <c r="E16">
-        <v>0.804220986495122</v>
+        <v>0.8042209864951241</v>
       </c>
       <c r="F16">
-        <v>0.7677173668597187</v>
+        <v>0.767717366859721</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J16">
-        <v>0.8101023285542779</v>
+        <v>0.8101023285542802</v>
       </c>
       <c r="K16">
         <v>1.028353643349236</v>
       </c>
       <c r="L16">
-        <v>0.8215565010329015</v>
+        <v>0.8215565010329036</v>
       </c>
       <c r="M16">
-        <v>0.7861787064588134</v>
+        <v>0.7861787064588158</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7728644609999612</v>
+        <v>0.7728644609999634</v>
       </c>
       <c r="D17">
         <v>1.015507248178864</v>
       </c>
       <c r="E17">
-        <v>0.804220986495122</v>
+        <v>0.8042209864951241</v>
       </c>
       <c r="F17">
-        <v>0.7677173668597187</v>
+        <v>0.767717366859721</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J17">
-        <v>0.8101023285542779</v>
+        <v>0.8101023285542802</v>
       </c>
       <c r="K17">
         <v>1.028353643349236</v>
       </c>
       <c r="L17">
-        <v>0.8215565010329015</v>
+        <v>0.8215565010329036</v>
       </c>
       <c r="M17">
-        <v>0.7861787064588134</v>
+        <v>0.7861787064588158</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7728644609999612</v>
+        <v>0.7728644609999634</v>
       </c>
       <c r="D18">
         <v>1.015507248178864</v>
       </c>
       <c r="E18">
-        <v>0.804220986495122</v>
+        <v>0.8042209864951241</v>
       </c>
       <c r="F18">
-        <v>0.7677173668597187</v>
+        <v>0.767717366859721</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J18">
-        <v>0.8101023285542779</v>
+        <v>0.8101023285542802</v>
       </c>
       <c r="K18">
         <v>1.028353643349236</v>
       </c>
       <c r="L18">
-        <v>0.8215565010329015</v>
+        <v>0.8215565010329036</v>
       </c>
       <c r="M18">
-        <v>0.7861787064588134</v>
+        <v>0.7861787064588158</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7728644609999612</v>
+        <v>0.7728644609999634</v>
       </c>
       <c r="D19">
         <v>1.015507248178864</v>
       </c>
       <c r="E19">
-        <v>0.804220986495122</v>
+        <v>0.8042209864951241</v>
       </c>
       <c r="F19">
-        <v>0.7677173668597187</v>
+        <v>0.767717366859721</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J19">
-        <v>0.8101023285542779</v>
+        <v>0.8101023285542802</v>
       </c>
       <c r="K19">
         <v>1.028353643349236</v>
       </c>
       <c r="L19">
-        <v>0.8215565010329015</v>
+        <v>0.8215565010329036</v>
       </c>
       <c r="M19">
-        <v>0.7861787064588134</v>
+        <v>0.7861787064588158</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7728644609999612</v>
+        <v>0.7728644609999634</v>
       </c>
       <c r="D20">
         <v>1.015507248178864</v>
       </c>
       <c r="E20">
-        <v>0.804220986495122</v>
+        <v>0.8042209864951241</v>
       </c>
       <c r="F20">
-        <v>0.7677173668597187</v>
+        <v>0.767717366859721</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J20">
-        <v>0.8101023285542779</v>
+        <v>0.8101023285542802</v>
       </c>
       <c r="K20">
         <v>1.028353643349236</v>
       </c>
       <c r="L20">
-        <v>0.8215565010329015</v>
+        <v>0.8215565010329036</v>
       </c>
       <c r="M20">
-        <v>0.7861787064588134</v>
+        <v>0.7861787064588158</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7728644609999612</v>
+        <v>0.7728644609999634</v>
       </c>
       <c r="D21">
         <v>1.015507248178864</v>
       </c>
       <c r="E21">
-        <v>0.804220986495122</v>
+        <v>0.8042209864951241</v>
       </c>
       <c r="F21">
-        <v>0.7677173668597187</v>
+        <v>0.767717366859721</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J21">
-        <v>0.8101023285542779</v>
+        <v>0.8101023285542802</v>
       </c>
       <c r="K21">
         <v>1.028353643349236</v>
       </c>
       <c r="L21">
-        <v>0.8215565010329015</v>
+        <v>0.8215565010329036</v>
       </c>
       <c r="M21">
-        <v>0.7861787064588134</v>
+        <v>0.7861787064588158</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7728644609999612</v>
+        <v>0.7728644609999634</v>
       </c>
       <c r="D22">
         <v>1.015507248178864</v>
       </c>
       <c r="E22">
-        <v>0.804220986495122</v>
+        <v>0.8042209864951241</v>
       </c>
       <c r="F22">
-        <v>0.7677173668597187</v>
+        <v>0.767717366859721</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J22">
-        <v>0.8101023285542779</v>
+        <v>0.8101023285542802</v>
       </c>
       <c r="K22">
         <v>1.028353643349236</v>
       </c>
       <c r="L22">
-        <v>0.8215565010329015</v>
+        <v>0.8215565010329036</v>
       </c>
       <c r="M22">
-        <v>0.7861787064588134</v>
+        <v>0.7861787064588158</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7728644609999612</v>
+        <v>0.7728644609999634</v>
       </c>
       <c r="D23">
         <v>1.015507248178864</v>
       </c>
       <c r="E23">
-        <v>0.804220986495122</v>
+        <v>0.8042209864951241</v>
       </c>
       <c r="F23">
-        <v>0.7677173668597187</v>
+        <v>0.767717366859721</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J23">
-        <v>0.8101023285542779</v>
+        <v>0.8101023285542802</v>
       </c>
       <c r="K23">
         <v>1.028353643349236</v>
       </c>
       <c r="L23">
-        <v>0.8215565010329015</v>
+        <v>0.8215565010329036</v>
       </c>
       <c r="M23">
-        <v>0.7861787064588134</v>
+        <v>0.7861787064588158</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7728644609999612</v>
+        <v>0.7728644609999634</v>
       </c>
       <c r="D24">
         <v>1.015507248178864</v>
       </c>
       <c r="E24">
-        <v>0.804220986495122</v>
+        <v>0.8042209864951241</v>
       </c>
       <c r="F24">
-        <v>0.7677173668597187</v>
+        <v>0.767717366859721</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J24">
-        <v>0.8101023285542779</v>
+        <v>0.8101023285542802</v>
       </c>
       <c r="K24">
         <v>1.028353643349236</v>
       </c>
       <c r="L24">
-        <v>0.8215565010329015</v>
+        <v>0.8215565010329036</v>
       </c>
       <c r="M24">
-        <v>0.7861787064588134</v>
+        <v>0.7861787064588158</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7728644609999612</v>
+        <v>0.7728644609999634</v>
       </c>
       <c r="D25">
         <v>1.015507248178864</v>
       </c>
       <c r="E25">
-        <v>0.804220986495122</v>
+        <v>0.8042209864951241</v>
       </c>
       <c r="F25">
-        <v>0.7677173668597187</v>
+        <v>0.767717366859721</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J25">
-        <v>0.8101023285542779</v>
+        <v>0.8101023285542802</v>
       </c>
       <c r="K25">
         <v>1.028353643349236</v>
       </c>
       <c r="L25">
-        <v>0.8215565010329015</v>
+        <v>0.8215565010329036</v>
       </c>
       <c r="M25">
-        <v>0.7861787064588134</v>
+        <v>0.7861787064588158</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8446980928415209</v>
+        <v>0.8446980928415202</v>
       </c>
       <c r="D2">
         <v>1.023091368372433</v>
       </c>
       <c r="E2">
-        <v>0.8673127765218367</v>
+        <v>0.8673127765218361</v>
       </c>
       <c r="F2">
-        <v>0.8428373465923154</v>
+        <v>0.8428373465923148</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.04823588693434</v>
       </c>
       <c r="J2">
-        <v>0.8727760211159856</v>
+        <v>0.8727760211159851</v>
       </c>
       <c r="K2">
         <v>1.034238110779699</v>
       </c>
       <c r="L2">
-        <v>0.8809928084060171</v>
+        <v>0.8809928084060165</v>
       </c>
       <c r="M2">
-        <v>0.8570284852034916</v>
+        <v>0.8570284852034911</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8709823293449038</v>
+        <v>0.8709823293449023</v>
       </c>
       <c r="D3">
         <v>1.026656736711927</v>
       </c>
       <c r="E3">
-        <v>0.8905398653446939</v>
+        <v>0.8905398653446926</v>
       </c>
       <c r="F3">
-        <v>0.8703525555498016</v>
+        <v>0.8703525555498</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049552168686541</v>
+        <v>1.04955216868654</v>
       </c>
       <c r="J3">
-        <v>0.8957362804483315</v>
+        <v>0.8957362804483301</v>
       </c>
       <c r="K3">
         <v>1.036959532729952</v>
       </c>
       <c r="L3">
-        <v>0.9027955453800278</v>
+        <v>0.9027955453800265</v>
       </c>
       <c r="M3">
-        <v>0.8829655222976444</v>
+        <v>0.8829655222976425</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8860266201700542</v>
+        <v>0.8860266201700524</v>
       </c>
       <c r="D4">
-        <v>1.028866762049402</v>
+        <v>1.028866762049403</v>
       </c>
       <c r="E4">
-        <v>0.9038597758506911</v>
+        <v>0.9038597758506898</v>
       </c>
       <c r="F4">
-        <v>0.88611414766719</v>
+        <v>0.8861141476671883</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050346101611162</v>
+        <v>1.050346101611163</v>
       </c>
       <c r="J4">
-        <v>0.9088752316168918</v>
+        <v>0.9088752316168901</v>
       </c>
       <c r="K4">
-        <v>1.038628840114071</v>
+        <v>1.038628840114072</v>
       </c>
       <c r="L4">
-        <v>0.9152759999260949</v>
+        <v>0.9152759999260933</v>
       </c>
       <c r="M4">
-        <v>0.8978137684466179</v>
+        <v>0.8978137684466164</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8919830922499653</v>
+        <v>0.8919830922499647</v>
       </c>
       <c r="D5">
         <v>1.029773185199952</v>
       </c>
       <c r="E5">
-        <v>0.9091379062199634</v>
+        <v>0.9091379062199626</v>
       </c>
       <c r="F5">
-        <v>0.8923577305579656</v>
+        <v>0.8923577305579647</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.05066628811199</v>
       </c>
       <c r="J5">
-        <v>0.9140758628550326</v>
+        <v>0.9140758628550318</v>
       </c>
       <c r="K5">
         <v>1.039309142812777</v>
       </c>
       <c r="L5">
-        <v>0.9202164980703212</v>
+        <v>0.9202164980703205</v>
       </c>
       <c r="M5">
-        <v>0.9036931107902226</v>
+        <v>0.9036931107902219</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8929638605483826</v>
+        <v>0.8929638605483848</v>
       </c>
       <c r="D6">
         <v>1.029924063371672</v>
       </c>
       <c r="E6">
-        <v>0.9100072016681131</v>
+        <v>0.9100072016681152</v>
       </c>
       <c r="F6">
-        <v>0.8933859574279778</v>
+        <v>0.89338595742798</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.050719259225519</v>
       </c>
       <c r="J6">
-        <v>0.9149320736496379</v>
+        <v>0.9149320736496399</v>
       </c>
       <c r="K6">
         <v>1.039422122093321</v>
       </c>
       <c r="L6">
-        <v>0.9210299021922409</v>
+        <v>0.9210299021922429</v>
       </c>
       <c r="M6">
-        <v>0.9046612044698806</v>
+        <v>0.904661204469883</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8861075521149516</v>
+        <v>0.8861075521149507</v>
       </c>
       <c r="D7">
         <v>1.028878962103938</v>
       </c>
       <c r="E7">
-        <v>0.9039314752177832</v>
+        <v>0.9039314752177824</v>
       </c>
       <c r="F7">
-        <v>0.8861989681198627</v>
+        <v>0.8861989681198618</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050350433012133</v>
+        <v>1.050350433012134</v>
       </c>
       <c r="J7">
-        <v>0.9089459004939412</v>
+        <v>0.9089459004939405</v>
       </c>
       <c r="K7">
         <v>1.038638014144871</v>
       </c>
       <c r="L7">
-        <v>0.9153431323799726</v>
+        <v>0.9153431323799718</v>
       </c>
       <c r="M7">
-        <v>0.8978936506158611</v>
+        <v>0.8978936506158604</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8540644850356787</v>
+        <v>0.8540644850356761</v>
       </c>
       <c r="D8">
         <v>1.024316734034517</v>
       </c>
       <c r="E8">
-        <v>0.8755826530197731</v>
+        <v>0.8755826530197709</v>
       </c>
       <c r="F8">
-        <v>0.8526395991712055</v>
+        <v>0.8526395991712029</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.048692855248919</v>
       </c>
       <c r="J8">
-        <v>0.8809578940764955</v>
+        <v>0.8809578940764929</v>
       </c>
       <c r="K8">
         <v>1.035177093591588</v>
       </c>
       <c r="L8">
-        <v>0.8887609827586186</v>
+        <v>0.8887609827586163</v>
       </c>
       <c r="M8">
-        <v>0.8662704311234972</v>
+        <v>0.8662704311234946</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7728644609999634</v>
+        <v>0.7728644609999612</v>
       </c>
       <c r="D9">
         <v>1.015507248178864</v>
       </c>
       <c r="E9">
-        <v>0.8042209864951241</v>
+        <v>0.804220986495122</v>
       </c>
       <c r="F9">
-        <v>0.767717366859721</v>
+        <v>0.7677173668597187</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J9">
-        <v>0.8101023285542802</v>
+        <v>0.8101023285542779</v>
       </c>
       <c r="K9">
         <v>1.028353643349236</v>
       </c>
       <c r="L9">
-        <v>0.8215565010329036</v>
+        <v>0.8215565010329015</v>
       </c>
       <c r="M9">
-        <v>0.7861787064588158</v>
+        <v>0.7861787064588134</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7728644609999634</v>
+        <v>0.7728644609999612</v>
       </c>
       <c r="D10">
         <v>1.015507248178864</v>
       </c>
       <c r="E10">
-        <v>0.8042209864951241</v>
+        <v>0.804220986495122</v>
       </c>
       <c r="F10">
-        <v>0.767717366859721</v>
+        <v>0.7677173668597187</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J10">
-        <v>0.8101023285542802</v>
+        <v>0.8101023285542779</v>
       </c>
       <c r="K10">
         <v>1.028353643349236</v>
       </c>
       <c r="L10">
-        <v>0.8215565010329036</v>
+        <v>0.8215565010329015</v>
       </c>
       <c r="M10">
-        <v>0.7861787064588158</v>
+        <v>0.7861787064588134</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7728644609999634</v>
+        <v>0.7728644609999612</v>
       </c>
       <c r="D11">
         <v>1.015507248178864</v>
       </c>
       <c r="E11">
-        <v>0.8042209864951241</v>
+        <v>0.804220986495122</v>
       </c>
       <c r="F11">
-        <v>0.767717366859721</v>
+        <v>0.7677173668597187</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J11">
-        <v>0.8101023285542802</v>
+        <v>0.8101023285542779</v>
       </c>
       <c r="K11">
         <v>1.028353643349236</v>
       </c>
       <c r="L11">
-        <v>0.8215565010329036</v>
+        <v>0.8215565010329015</v>
       </c>
       <c r="M11">
-        <v>0.7861787064588158</v>
+        <v>0.7861787064588134</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7728644609999634</v>
+        <v>0.7728644609999612</v>
       </c>
       <c r="D12">
         <v>1.015507248178864</v>
       </c>
       <c r="E12">
-        <v>0.8042209864951241</v>
+        <v>0.804220986495122</v>
       </c>
       <c r="F12">
-        <v>0.767717366859721</v>
+        <v>0.7677173668597187</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J12">
-        <v>0.8101023285542802</v>
+        <v>0.8101023285542779</v>
       </c>
       <c r="K12">
         <v>1.028353643349236</v>
       </c>
       <c r="L12">
-        <v>0.8215565010329036</v>
+        <v>0.8215565010329015</v>
       </c>
       <c r="M12">
-        <v>0.7861787064588158</v>
+        <v>0.7861787064588134</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7728644609999634</v>
+        <v>0.7728644609999612</v>
       </c>
       <c r="D13">
         <v>1.015507248178864</v>
       </c>
       <c r="E13">
-        <v>0.8042209864951241</v>
+        <v>0.804220986495122</v>
       </c>
       <c r="F13">
-        <v>0.767717366859721</v>
+        <v>0.7677173668597187</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J13">
-        <v>0.8101023285542802</v>
+        <v>0.8101023285542779</v>
       </c>
       <c r="K13">
         <v>1.028353643349236</v>
       </c>
       <c r="L13">
-        <v>0.8215565010329036</v>
+        <v>0.8215565010329015</v>
       </c>
       <c r="M13">
-        <v>0.7861787064588158</v>
+        <v>0.7861787064588134</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7728644609999634</v>
+        <v>0.7728644609999612</v>
       </c>
       <c r="D14">
         <v>1.015507248178864</v>
       </c>
       <c r="E14">
-        <v>0.8042209864951241</v>
+        <v>0.804220986495122</v>
       </c>
       <c r="F14">
-        <v>0.767717366859721</v>
+        <v>0.7677173668597187</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J14">
-        <v>0.8101023285542802</v>
+        <v>0.8101023285542779</v>
       </c>
       <c r="K14">
         <v>1.028353643349236</v>
       </c>
       <c r="L14">
-        <v>0.8215565010329036</v>
+        <v>0.8215565010329015</v>
       </c>
       <c r="M14">
-        <v>0.7861787064588158</v>
+        <v>0.7861787064588134</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7728644609999634</v>
+        <v>0.7728644609999612</v>
       </c>
       <c r="D15">
         <v>1.015507248178864</v>
       </c>
       <c r="E15">
-        <v>0.8042209864951241</v>
+        <v>0.804220986495122</v>
       </c>
       <c r="F15">
-        <v>0.767717366859721</v>
+        <v>0.7677173668597187</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J15">
-        <v>0.8101023285542802</v>
+        <v>0.8101023285542779</v>
       </c>
       <c r="K15">
         <v>1.028353643349236</v>
       </c>
       <c r="L15">
-        <v>0.8215565010329036</v>
+        <v>0.8215565010329015</v>
       </c>
       <c r="M15">
-        <v>0.7861787064588158</v>
+        <v>0.7861787064588134</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7728644609999634</v>
+        <v>0.7728644609999612</v>
       </c>
       <c r="D16">
         <v>1.015507248178864</v>
       </c>
       <c r="E16">
-        <v>0.8042209864951241</v>
+        <v>0.804220986495122</v>
       </c>
       <c r="F16">
-        <v>0.767717366859721</v>
+        <v>0.7677173668597187</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J16">
-        <v>0.8101023285542802</v>
+        <v>0.8101023285542779</v>
       </c>
       <c r="K16">
         <v>1.028353643349236</v>
       </c>
       <c r="L16">
-        <v>0.8215565010329036</v>
+        <v>0.8215565010329015</v>
       </c>
       <c r="M16">
-        <v>0.7861787064588158</v>
+        <v>0.7861787064588134</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7728644609999634</v>
+        <v>0.7728644609999612</v>
       </c>
       <c r="D17">
         <v>1.015507248178864</v>
       </c>
       <c r="E17">
-        <v>0.8042209864951241</v>
+        <v>0.804220986495122</v>
       </c>
       <c r="F17">
-        <v>0.767717366859721</v>
+        <v>0.7677173668597187</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J17">
-        <v>0.8101023285542802</v>
+        <v>0.8101023285542779</v>
       </c>
       <c r="K17">
         <v>1.028353643349236</v>
       </c>
       <c r="L17">
-        <v>0.8215565010329036</v>
+        <v>0.8215565010329015</v>
       </c>
       <c r="M17">
-        <v>0.7861787064588158</v>
+        <v>0.7861787064588134</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7728644609999634</v>
+        <v>0.7728644609999612</v>
       </c>
       <c r="D18">
         <v>1.015507248178864</v>
       </c>
       <c r="E18">
-        <v>0.8042209864951241</v>
+        <v>0.804220986495122</v>
       </c>
       <c r="F18">
-        <v>0.767717366859721</v>
+        <v>0.7677173668597187</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J18">
-        <v>0.8101023285542802</v>
+        <v>0.8101023285542779</v>
       </c>
       <c r="K18">
         <v>1.028353643349236</v>
       </c>
       <c r="L18">
-        <v>0.8215565010329036</v>
+        <v>0.8215565010329015</v>
       </c>
       <c r="M18">
-        <v>0.7861787064588158</v>
+        <v>0.7861787064588134</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7728644609999634</v>
+        <v>0.7728644609999612</v>
       </c>
       <c r="D19">
         <v>1.015507248178864</v>
       </c>
       <c r="E19">
-        <v>0.8042209864951241</v>
+        <v>0.804220986495122</v>
       </c>
       <c r="F19">
-        <v>0.767717366859721</v>
+        <v>0.7677173668597187</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J19">
-        <v>0.8101023285542802</v>
+        <v>0.8101023285542779</v>
       </c>
       <c r="K19">
         <v>1.028353643349236</v>
       </c>
       <c r="L19">
-        <v>0.8215565010329036</v>
+        <v>0.8215565010329015</v>
       </c>
       <c r="M19">
-        <v>0.7861787064588158</v>
+        <v>0.7861787064588134</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7728644609999634</v>
+        <v>0.7728644609999612</v>
       </c>
       <c r="D20">
         <v>1.015507248178864</v>
       </c>
       <c r="E20">
-        <v>0.8042209864951241</v>
+        <v>0.804220986495122</v>
       </c>
       <c r="F20">
-        <v>0.767717366859721</v>
+        <v>0.7677173668597187</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J20">
-        <v>0.8101023285542802</v>
+        <v>0.8101023285542779</v>
       </c>
       <c r="K20">
         <v>1.028353643349236</v>
       </c>
       <c r="L20">
-        <v>0.8215565010329036</v>
+        <v>0.8215565010329015</v>
       </c>
       <c r="M20">
-        <v>0.7861787064588158</v>
+        <v>0.7861787064588134</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7728644609999634</v>
+        <v>0.7728644609999612</v>
       </c>
       <c r="D21">
         <v>1.015507248178864</v>
       </c>
       <c r="E21">
-        <v>0.8042209864951241</v>
+        <v>0.804220986495122</v>
       </c>
       <c r="F21">
-        <v>0.767717366859721</v>
+        <v>0.7677173668597187</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J21">
-        <v>0.8101023285542802</v>
+        <v>0.8101023285542779</v>
       </c>
       <c r="K21">
         <v>1.028353643349236</v>
       </c>
       <c r="L21">
-        <v>0.8215565010329036</v>
+        <v>0.8215565010329015</v>
       </c>
       <c r="M21">
-        <v>0.7861787064588158</v>
+        <v>0.7861787064588134</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7728644609999634</v>
+        <v>0.7728644609999612</v>
       </c>
       <c r="D22">
         <v>1.015507248178864</v>
       </c>
       <c r="E22">
-        <v>0.8042209864951241</v>
+        <v>0.804220986495122</v>
       </c>
       <c r="F22">
-        <v>0.767717366859721</v>
+        <v>0.7677173668597187</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J22">
-        <v>0.8101023285542802</v>
+        <v>0.8101023285542779</v>
       </c>
       <c r="K22">
         <v>1.028353643349236</v>
       </c>
       <c r="L22">
-        <v>0.8215565010329036</v>
+        <v>0.8215565010329015</v>
       </c>
       <c r="M22">
-        <v>0.7861787064588158</v>
+        <v>0.7861787064588134</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7728644609999634</v>
+        <v>0.7728644609999612</v>
       </c>
       <c r="D23">
         <v>1.015507248178864</v>
       </c>
       <c r="E23">
-        <v>0.8042209864951241</v>
+        <v>0.804220986495122</v>
       </c>
       <c r="F23">
-        <v>0.767717366859721</v>
+        <v>0.7677173668597187</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J23">
-        <v>0.8101023285542802</v>
+        <v>0.8101023285542779</v>
       </c>
       <c r="K23">
         <v>1.028353643349236</v>
       </c>
       <c r="L23">
-        <v>0.8215565010329036</v>
+        <v>0.8215565010329015</v>
       </c>
       <c r="M23">
-        <v>0.7861787064588158</v>
+        <v>0.7861787064588134</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7728644609999634</v>
+        <v>0.7728644609999612</v>
       </c>
       <c r="D24">
         <v>1.015507248178864</v>
       </c>
       <c r="E24">
-        <v>0.8042209864951241</v>
+        <v>0.804220986495122</v>
       </c>
       <c r="F24">
-        <v>0.767717366859721</v>
+        <v>0.7677173668597187</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J24">
-        <v>0.8101023285542802</v>
+        <v>0.8101023285542779</v>
       </c>
       <c r="K24">
         <v>1.028353643349236</v>
       </c>
       <c r="L24">
-        <v>0.8215565010329036</v>
+        <v>0.8215565010329015</v>
       </c>
       <c r="M24">
-        <v>0.7861787064588158</v>
+        <v>0.7861787064588134</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7728644609999634</v>
+        <v>0.7728644609999612</v>
       </c>
       <c r="D25">
         <v>1.015507248178864</v>
       </c>
       <c r="E25">
-        <v>0.8042209864951241</v>
+        <v>0.804220986495122</v>
       </c>
       <c r="F25">
-        <v>0.767717366859721</v>
+        <v>0.7677173668597187</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J25">
-        <v>0.8101023285542802</v>
+        <v>0.8101023285542779</v>
       </c>
       <c r="K25">
         <v>1.028353643349236</v>
       </c>
       <c r="L25">
-        <v>0.8215565010329036</v>
+        <v>0.8215565010329015</v>
       </c>
       <c r="M25">
-        <v>0.7861787064588158</v>
+        <v>0.7861787064588134</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8446980928415202</v>
+        <v>0.8451009948924486</v>
       </c>
       <c r="D2">
         <v>1.023091368372433</v>
       </c>
       <c r="E2">
-        <v>0.8673127765218361</v>
+        <v>0.867674274952917</v>
       </c>
       <c r="F2">
-        <v>0.8428373465923148</v>
+        <v>0.8432392653373691</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,19 @@
         <v>1.04823588693434</v>
       </c>
       <c r="J2">
-        <v>0.8727760211159851</v>
+        <v>0.873159546657882</v>
       </c>
       <c r="K2">
         <v>1.034238110779699</v>
       </c>
       <c r="L2">
-        <v>0.8809928084060165</v>
+        <v>0.8813470421867335</v>
       </c>
       <c r="M2">
-        <v>0.8570284852034911</v>
+        <v>0.8574216927871821</v>
+      </c>
+      <c r="N2">
+        <v>0.9099605818027202</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +462,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8709823293449023</v>
+        <v>0.8712956475411767</v>
       </c>
       <c r="D3">
         <v>1.026656736711927</v>
       </c>
       <c r="E3">
-        <v>0.8905398653446926</v>
+        <v>0.8908218879591233</v>
       </c>
       <c r="F3">
-        <v>0.8703525555498</v>
+        <v>0.870663773669302</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +480,19 @@
         <v>1.04955216868654</v>
       </c>
       <c r="J3">
-        <v>0.8957362804483301</v>
+        <v>0.896037066504721</v>
       </c>
       <c r="K3">
         <v>1.036959532729952</v>
       </c>
       <c r="L3">
-        <v>0.9027955453800265</v>
+        <v>0.9030727248445579</v>
       </c>
       <c r="M3">
-        <v>0.8829655222976425</v>
+        <v>0.8832710686555731</v>
+      </c>
+      <c r="N3">
+        <v>0.926525546216031</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +503,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8860266201700524</v>
+        <v>0.8862957980377862</v>
       </c>
       <c r="D4">
         <v>1.028866762049403</v>
       </c>
       <c r="E4">
-        <v>0.9038597758506898</v>
+        <v>0.904102442666828</v>
       </c>
       <c r="F4">
-        <v>0.8861141476671883</v>
+        <v>0.8863809050141876</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +521,19 @@
         <v>1.050346101611163</v>
       </c>
       <c r="J4">
-        <v>0.9088752316168901</v>
+        <v>0.9091348054089202</v>
       </c>
       <c r="K4">
         <v>1.038628840114072</v>
       </c>
       <c r="L4">
-        <v>0.9152759999260933</v>
+        <v>0.9155148899199972</v>
       </c>
       <c r="M4">
-        <v>0.8978137684466164</v>
+        <v>0.8980761577099388</v>
+      </c>
+      <c r="N4">
+        <v>0.9360091246305781</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +544,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8919830922499647</v>
+        <v>0.8922359513581983</v>
       </c>
       <c r="D5">
         <v>1.029773185199952</v>
       </c>
       <c r="E5">
-        <v>0.9091379062199626</v>
+        <v>0.9093659901276246</v>
       </c>
       <c r="F5">
-        <v>0.8923577305579647</v>
+        <v>0.8926080939284601</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +562,19 @@
         <v>1.05066628811199</v>
       </c>
       <c r="J5">
-        <v>0.9140758628550318</v>
+        <v>0.9143201174651229</v>
       </c>
       <c r="K5">
         <v>1.039309142812777</v>
       </c>
       <c r="L5">
-        <v>0.9202164980703205</v>
+        <v>0.9204411746430519</v>
       </c>
       <c r="M5">
-        <v>0.9036931107902219</v>
+        <v>0.9039395520933258</v>
+      </c>
+      <c r="N5">
+        <v>0.9397625182128184</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +585,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8929638605483848</v>
+        <v>0.8932140899616794</v>
       </c>
       <c r="D6">
         <v>1.029924063371672</v>
       </c>
       <c r="E6">
-        <v>0.9100072016681152</v>
+        <v>0.9102329339587754</v>
       </c>
       <c r="F6">
-        <v>0.89338595742798</v>
+        <v>0.8936336812806326</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +603,19 @@
         <v>1.050719259225519</v>
       </c>
       <c r="J6">
-        <v>0.9149320736496399</v>
+        <v>0.9151738552646185</v>
       </c>
       <c r="K6">
         <v>1.039422122093321</v>
       </c>
       <c r="L6">
-        <v>0.9210299021922429</v>
+        <v>0.9212522853574275</v>
       </c>
       <c r="M6">
-        <v>0.904661204469883</v>
+        <v>0.9049050762349666</v>
+      </c>
+      <c r="N6">
+        <v>0.9403804080988156</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +626,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8861075521149507</v>
+        <v>0.8863765041359357</v>
       </c>
       <c r="D7">
         <v>1.028878962103938</v>
       </c>
       <c r="E7">
-        <v>0.9039314752177824</v>
+        <v>0.9041739403315669</v>
       </c>
       <c r="F7">
-        <v>0.8861989681198618</v>
+        <v>0.886465498414054</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +644,19 @@
         <v>1.050350433012134</v>
       </c>
       <c r="J7">
-        <v>0.9089459004939405</v>
+        <v>0.9092052625882669</v>
       </c>
       <c r="K7">
         <v>1.038638014144871</v>
       </c>
       <c r="L7">
-        <v>0.9153431323799718</v>
+        <v>0.9155818258804237</v>
       </c>
       <c r="M7">
-        <v>0.8978936506158604</v>
+        <v>0.8981558191355377</v>
+      </c>
+      <c r="N7">
+        <v>0.9360601306993027</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +667,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8540644850356761</v>
+        <v>0.8544333654737147</v>
       </c>
       <c r="D8">
         <v>1.024316734034517</v>
       </c>
       <c r="E8">
-        <v>0.8755826530197709</v>
+        <v>0.8759140301688778</v>
       </c>
       <c r="F8">
-        <v>0.8526395991712029</v>
+        <v>0.8530070042871788</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +685,19 @@
         <v>1.048692855248919</v>
       </c>
       <c r="J8">
-        <v>0.8809578940764929</v>
+        <v>0.8813101289351134</v>
       </c>
       <c r="K8">
         <v>1.035177093591588</v>
       </c>
       <c r="L8">
-        <v>0.8887609827586163</v>
+        <v>0.8890860513228451</v>
       </c>
       <c r="M8">
-        <v>0.8662704311234946</v>
+        <v>0.8666303371018721</v>
+      </c>
+      <c r="N8">
+        <v>0.9158613611786964</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7728644609999612</v>
+        <v>0.7736644378268711</v>
       </c>
       <c r="D9">
         <v>1.015507248178864</v>
       </c>
       <c r="E9">
-        <v>0.804220986495122</v>
+        <v>0.8049295728018139</v>
       </c>
       <c r="F9">
-        <v>0.7677173668597187</v>
+        <v>0.7685264270151611</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +726,19 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J9">
-        <v>0.8101023285542779</v>
+        <v>0.8108428176494715</v>
       </c>
       <c r="K9">
         <v>1.028353643349236</v>
       </c>
       <c r="L9">
-        <v>0.8215565010329015</v>
+        <v>0.8222446159660479</v>
       </c>
       <c r="M9">
-        <v>0.7861787064588134</v>
+        <v>0.7869612022564351</v>
+      </c>
+      <c r="N9">
+        <v>0.8649580651212713</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +749,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7728644609999612</v>
+        <v>0.7736644378268711</v>
       </c>
       <c r="D10">
         <v>1.015507248178864</v>
       </c>
       <c r="E10">
-        <v>0.804220986495122</v>
+        <v>0.8049295728018139</v>
       </c>
       <c r="F10">
-        <v>0.7677173668597187</v>
+        <v>0.7685264270151611</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +767,19 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J10">
-        <v>0.8101023285542779</v>
+        <v>0.8108428176494715</v>
       </c>
       <c r="K10">
         <v>1.028353643349236</v>
       </c>
       <c r="L10">
-        <v>0.8215565010329015</v>
+        <v>0.8222446159660479</v>
       </c>
       <c r="M10">
-        <v>0.7861787064588134</v>
+        <v>0.7869612022564351</v>
+      </c>
+      <c r="N10">
+        <v>0.8649580651212713</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +790,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7728644609999612</v>
+        <v>0.7736644378268711</v>
       </c>
       <c r="D11">
         <v>1.015507248178864</v>
       </c>
       <c r="E11">
-        <v>0.804220986495122</v>
+        <v>0.8049295728018139</v>
       </c>
       <c r="F11">
-        <v>0.7677173668597187</v>
+        <v>0.7685264270151611</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +808,19 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J11">
-        <v>0.8101023285542779</v>
+        <v>0.8108428176494715</v>
       </c>
       <c r="K11">
         <v>1.028353643349236</v>
       </c>
       <c r="L11">
-        <v>0.8215565010329015</v>
+        <v>0.8222446159660479</v>
       </c>
       <c r="M11">
-        <v>0.7861787064588134</v>
+        <v>0.7869612022564351</v>
+      </c>
+      <c r="N11">
+        <v>0.8649580651212713</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +831,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7728644609999612</v>
+        <v>0.7736644378268711</v>
       </c>
       <c r="D12">
         <v>1.015507248178864</v>
       </c>
       <c r="E12">
-        <v>0.804220986495122</v>
+        <v>0.8049295728018139</v>
       </c>
       <c r="F12">
-        <v>0.7677173668597187</v>
+        <v>0.7685264270151611</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +849,19 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J12">
-        <v>0.8101023285542779</v>
+        <v>0.8108428176494715</v>
       </c>
       <c r="K12">
         <v>1.028353643349236</v>
       </c>
       <c r="L12">
-        <v>0.8215565010329015</v>
+        <v>0.8222446159660479</v>
       </c>
       <c r="M12">
-        <v>0.7861787064588134</v>
+        <v>0.7869612022564351</v>
+      </c>
+      <c r="N12">
+        <v>0.8649580651212713</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +872,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7728644609999612</v>
+        <v>0.7736644378268711</v>
       </c>
       <c r="D13">
         <v>1.015507248178864</v>
       </c>
       <c r="E13">
-        <v>0.804220986495122</v>
+        <v>0.8049295728018139</v>
       </c>
       <c r="F13">
-        <v>0.7677173668597187</v>
+        <v>0.7685264270151611</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +890,19 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J13">
-        <v>0.8101023285542779</v>
+        <v>0.8108428176494715</v>
       </c>
       <c r="K13">
         <v>1.028353643349236</v>
       </c>
       <c r="L13">
-        <v>0.8215565010329015</v>
+        <v>0.8222446159660479</v>
       </c>
       <c r="M13">
-        <v>0.7861787064588134</v>
+        <v>0.7869612022564351</v>
+      </c>
+      <c r="N13">
+        <v>0.8649580651212713</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +913,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7728644609999612</v>
+        <v>0.7736644378268711</v>
       </c>
       <c r="D14">
         <v>1.015507248178864</v>
       </c>
       <c r="E14">
-        <v>0.804220986495122</v>
+        <v>0.8049295728018139</v>
       </c>
       <c r="F14">
-        <v>0.7677173668597187</v>
+        <v>0.7685264270151611</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +931,19 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J14">
-        <v>0.8101023285542779</v>
+        <v>0.8108428176494715</v>
       </c>
       <c r="K14">
         <v>1.028353643349236</v>
       </c>
       <c r="L14">
-        <v>0.8215565010329015</v>
+        <v>0.8222446159660479</v>
       </c>
       <c r="M14">
-        <v>0.7861787064588134</v>
+        <v>0.7869612022564351</v>
+      </c>
+      <c r="N14">
+        <v>0.8649580651212713</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +954,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7728644609999612</v>
+        <v>0.7736644378268711</v>
       </c>
       <c r="D15">
         <v>1.015507248178864</v>
       </c>
       <c r="E15">
-        <v>0.804220986495122</v>
+        <v>0.8049295728018139</v>
       </c>
       <c r="F15">
-        <v>0.7677173668597187</v>
+        <v>0.7685264270151611</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +972,19 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J15">
-        <v>0.8101023285542779</v>
+        <v>0.8108428176494715</v>
       </c>
       <c r="K15">
         <v>1.028353643349236</v>
       </c>
       <c r="L15">
-        <v>0.8215565010329015</v>
+        <v>0.8222446159660479</v>
       </c>
       <c r="M15">
-        <v>0.7861787064588134</v>
+        <v>0.7869612022564351</v>
+      </c>
+      <c r="N15">
+        <v>0.8649580651212713</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +995,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7728644609999612</v>
+        <v>0.7736644378268711</v>
       </c>
       <c r="D16">
         <v>1.015507248178864</v>
       </c>
       <c r="E16">
-        <v>0.804220986495122</v>
+        <v>0.8049295728018139</v>
       </c>
       <c r="F16">
-        <v>0.7677173668597187</v>
+        <v>0.7685264270151611</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,19 +1013,22 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J16">
-        <v>0.8101023285542779</v>
+        <v>0.8108428176494715</v>
       </c>
       <c r="K16">
         <v>1.028353643349236</v>
       </c>
       <c r="L16">
-        <v>0.8215565010329015</v>
+        <v>0.8222446159660479</v>
       </c>
       <c r="M16">
-        <v>0.7861787064588134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7869612022564351</v>
+      </c>
+      <c r="N16">
+        <v>0.8649580651212713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,16 +1036,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7728644609999612</v>
+        <v>0.7736644378268711</v>
       </c>
       <c r="D17">
         <v>1.015507248178864</v>
       </c>
       <c r="E17">
-        <v>0.804220986495122</v>
+        <v>0.8049295728018139</v>
       </c>
       <c r="F17">
-        <v>0.7677173668597187</v>
+        <v>0.7685264270151611</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,19 +1054,22 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J17">
-        <v>0.8101023285542779</v>
+        <v>0.8108428176494715</v>
       </c>
       <c r="K17">
         <v>1.028353643349236</v>
       </c>
       <c r="L17">
-        <v>0.8215565010329015</v>
+        <v>0.8222446159660479</v>
       </c>
       <c r="M17">
-        <v>0.7861787064588134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7869612022564351</v>
+      </c>
+      <c r="N17">
+        <v>0.8649580651212713</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,16 +1077,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7728644609999612</v>
+        <v>0.7736644378268711</v>
       </c>
       <c r="D18">
         <v>1.015507248178864</v>
       </c>
       <c r="E18">
-        <v>0.804220986495122</v>
+        <v>0.8049295728018139</v>
       </c>
       <c r="F18">
-        <v>0.7677173668597187</v>
+        <v>0.7685264270151611</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,19 +1095,22 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J18">
-        <v>0.8101023285542779</v>
+        <v>0.8108428176494715</v>
       </c>
       <c r="K18">
         <v>1.028353643349236</v>
       </c>
       <c r="L18">
-        <v>0.8215565010329015</v>
+        <v>0.8222446159660479</v>
       </c>
       <c r="M18">
-        <v>0.7861787064588134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7869612022564351</v>
+      </c>
+      <c r="N18">
+        <v>0.8649580651212713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,16 +1118,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7728644609999612</v>
+        <v>0.7736644378268711</v>
       </c>
       <c r="D19">
         <v>1.015507248178864</v>
       </c>
       <c r="E19">
-        <v>0.804220986495122</v>
+        <v>0.8049295728018139</v>
       </c>
       <c r="F19">
-        <v>0.7677173668597187</v>
+        <v>0.7685264270151611</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,19 +1136,22 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J19">
-        <v>0.8101023285542779</v>
+        <v>0.8108428176494715</v>
       </c>
       <c r="K19">
         <v>1.028353643349236</v>
       </c>
       <c r="L19">
-        <v>0.8215565010329015</v>
+        <v>0.8222446159660479</v>
       </c>
       <c r="M19">
-        <v>0.7861787064588134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7869612022564351</v>
+      </c>
+      <c r="N19">
+        <v>0.8649580651212713</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,16 +1159,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7728644609999612</v>
+        <v>0.7736644378268711</v>
       </c>
       <c r="D20">
         <v>1.015507248178864</v>
       </c>
       <c r="E20">
-        <v>0.804220986495122</v>
+        <v>0.8049295728018139</v>
       </c>
       <c r="F20">
-        <v>0.7677173668597187</v>
+        <v>0.7685264270151611</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,19 +1177,22 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J20">
-        <v>0.8101023285542779</v>
+        <v>0.8108428176494715</v>
       </c>
       <c r="K20">
         <v>1.028353643349236</v>
       </c>
       <c r="L20">
-        <v>0.8215565010329015</v>
+        <v>0.8222446159660479</v>
       </c>
       <c r="M20">
-        <v>0.7861787064588134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7869612022564351</v>
+      </c>
+      <c r="N20">
+        <v>0.8649580651212713</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,16 +1200,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7728644609999612</v>
+        <v>0.7736644378268711</v>
       </c>
       <c r="D21">
         <v>1.015507248178864</v>
       </c>
       <c r="E21">
-        <v>0.804220986495122</v>
+        <v>0.8049295728018139</v>
       </c>
       <c r="F21">
-        <v>0.7677173668597187</v>
+        <v>0.7685264270151611</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,19 +1218,22 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J21">
-        <v>0.8101023285542779</v>
+        <v>0.8108428176494715</v>
       </c>
       <c r="K21">
         <v>1.028353643349236</v>
       </c>
       <c r="L21">
-        <v>0.8215565010329015</v>
+        <v>0.8222446159660479</v>
       </c>
       <c r="M21">
-        <v>0.7861787064588134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7869612022564351</v>
+      </c>
+      <c r="N21">
+        <v>0.8649580651212713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,16 +1241,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7728644609999612</v>
+        <v>0.7736644378268711</v>
       </c>
       <c r="D22">
         <v>1.015507248178864</v>
       </c>
       <c r="E22">
-        <v>0.804220986495122</v>
+        <v>0.8049295728018139</v>
       </c>
       <c r="F22">
-        <v>0.7677173668597187</v>
+        <v>0.7685264270151611</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,19 +1259,22 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J22">
-        <v>0.8101023285542779</v>
+        <v>0.8108428176494715</v>
       </c>
       <c r="K22">
         <v>1.028353643349236</v>
       </c>
       <c r="L22">
-        <v>0.8215565010329015</v>
+        <v>0.8222446159660479</v>
       </c>
       <c r="M22">
-        <v>0.7861787064588134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7869612022564351</v>
+      </c>
+      <c r="N22">
+        <v>0.8649580651212713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,16 +1282,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7728644609999612</v>
+        <v>0.7736644378268711</v>
       </c>
       <c r="D23">
         <v>1.015507248178864</v>
       </c>
       <c r="E23">
-        <v>0.804220986495122</v>
+        <v>0.8049295728018139</v>
       </c>
       <c r="F23">
-        <v>0.7677173668597187</v>
+        <v>0.7685264270151611</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,19 +1300,22 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J23">
-        <v>0.8101023285542779</v>
+        <v>0.8108428176494715</v>
       </c>
       <c r="K23">
         <v>1.028353643349236</v>
       </c>
       <c r="L23">
-        <v>0.8215565010329015</v>
+        <v>0.8222446159660479</v>
       </c>
       <c r="M23">
-        <v>0.7861787064588134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7869612022564351</v>
+      </c>
+      <c r="N23">
+        <v>0.8649580651212713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,16 +1323,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7728644609999612</v>
+        <v>0.7736644378268711</v>
       </c>
       <c r="D24">
         <v>1.015507248178864</v>
       </c>
       <c r="E24">
-        <v>0.804220986495122</v>
+        <v>0.8049295728018139</v>
       </c>
       <c r="F24">
-        <v>0.7677173668597187</v>
+        <v>0.7685264270151611</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,19 +1341,22 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J24">
-        <v>0.8101023285542779</v>
+        <v>0.8108428176494715</v>
       </c>
       <c r="K24">
         <v>1.028353643349236</v>
       </c>
       <c r="L24">
-        <v>0.8215565010329015</v>
+        <v>0.8222446159660479</v>
       </c>
       <c r="M24">
-        <v>0.7861787064588134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7869612022564351</v>
+      </c>
+      <c r="N24">
+        <v>0.8649580651212713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,16 +1364,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7728644609999612</v>
+        <v>0.7736644378268711</v>
       </c>
       <c r="D25">
         <v>1.015507248178864</v>
       </c>
       <c r="E25">
-        <v>0.804220986495122</v>
+        <v>0.8049295728018139</v>
       </c>
       <c r="F25">
-        <v>0.7677173668597187</v>
+        <v>0.7685264270151611</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1382,19 @@
         <v>1.045316807020323</v>
       </c>
       <c r="J25">
-        <v>0.8101023285542779</v>
+        <v>0.8108428176494715</v>
       </c>
       <c r="K25">
         <v>1.028353643349236</v>
       </c>
       <c r="L25">
-        <v>0.8215565010329015</v>
+        <v>0.8222446159660479</v>
       </c>
       <c r="M25">
-        <v>0.7861787064588134</v>
+        <v>0.7869612022564351</v>
+      </c>
+      <c r="N25">
+        <v>0.8649580651212713</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8451009948924486</v>
+        <v>1.014356381102612</v>
       </c>
       <c r="D2">
-        <v>1.023091368372433</v>
+        <v>1.052425233783207</v>
       </c>
       <c r="E2">
-        <v>0.867674274952917</v>
+        <v>1.028929286290954</v>
       </c>
       <c r="F2">
-        <v>0.8432392653373691</v>
+        <v>1.045926624115471</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04823588693434</v>
+        <v>1.062076091959047</v>
       </c>
       <c r="J2">
-        <v>0.873159546657882</v>
+        <v>1.036116013137653</v>
       </c>
       <c r="K2">
-        <v>1.034238110779699</v>
+        <v>1.06319950149353</v>
       </c>
       <c r="L2">
-        <v>0.8813470421867335</v>
+        <v>1.039999781814644</v>
       </c>
       <c r="M2">
-        <v>0.8574216927871821</v>
+        <v>1.056781164754484</v>
       </c>
       <c r="N2">
-        <v>0.9099605818027202</v>
+        <v>1.037587416720476</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8712956475411767</v>
+        <v>1.025653049494384</v>
       </c>
       <c r="D3">
-        <v>1.026656736711927</v>
+        <v>1.059075041948427</v>
       </c>
       <c r="E3">
-        <v>0.8908218879591233</v>
+        <v>1.038486639893077</v>
       </c>
       <c r="F3">
-        <v>0.870663773669302</v>
+        <v>1.05480246345025</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04955216868654</v>
+        <v>1.065474536812784</v>
       </c>
       <c r="J3">
-        <v>0.896037066504721</v>
+        <v>1.045468003133125</v>
       </c>
       <c r="K3">
-        <v>1.036959532729952</v>
+        <v>1.069003981069592</v>
       </c>
       <c r="L3">
-        <v>0.9030727248445579</v>
+        <v>1.048649666100149</v>
       </c>
       <c r="M3">
-        <v>0.8832710686555731</v>
+        <v>1.064779055841952</v>
       </c>
       <c r="N3">
-        <v>0.926525546216031</v>
+        <v>1.046952687614431</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8862957980377862</v>
+        <v>1.032662484255706</v>
       </c>
       <c r="D4">
-        <v>1.028866762049403</v>
+        <v>1.063209670857869</v>
       </c>
       <c r="E4">
-        <v>0.904102442666828</v>
+        <v>1.044421241794381</v>
       </c>
       <c r="F4">
-        <v>0.8863809050141876</v>
+        <v>1.060319289187538</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050346101611163</v>
+        <v>1.067568835890477</v>
       </c>
       <c r="J4">
-        <v>0.9091348054089202</v>
+        <v>1.051266040340616</v>
       </c>
       <c r="K4">
-        <v>1.038628840114072</v>
+        <v>1.072600677998</v>
       </c>
       <c r="L4">
-        <v>0.9155148899199972</v>
+        <v>1.054011547207852</v>
       </c>
       <c r="M4">
-        <v>0.8980761577099388</v>
+        <v>1.069740394367211</v>
       </c>
       <c r="N4">
-        <v>0.9360091246305781</v>
+        <v>1.0527589586998</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8922359513581983</v>
+        <v>1.035543094210868</v>
       </c>
       <c r="D5">
-        <v>1.029773185199952</v>
+        <v>1.064910481966383</v>
       </c>
       <c r="E5">
-        <v>0.9093659901276246</v>
+        <v>1.046860987551463</v>
       </c>
       <c r="F5">
-        <v>0.8926080939284601</v>
+        <v>1.062588450744467</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05066628811199</v>
+        <v>1.068425888199235</v>
       </c>
       <c r="J5">
-        <v>0.9143201174651229</v>
+        <v>1.053647551663925</v>
       </c>
       <c r="K5">
-        <v>1.039309142812777</v>
+        <v>1.074077320251105</v>
       </c>
       <c r="L5">
-        <v>0.9204411746430519</v>
+        <v>1.056213653404467</v>
       </c>
       <c r="M5">
-        <v>0.9039395520933258</v>
+        <v>1.071778764469498</v>
       </c>
       <c r="N5">
-        <v>0.9397625182128184</v>
+        <v>1.055143852042351</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8932140899616794</v>
+        <v>1.03602303506222</v>
       </c>
       <c r="D6">
-        <v>1.029924063371672</v>
+        <v>1.065193940811399</v>
       </c>
       <c r="E6">
-        <v>0.9102329339587754</v>
+        <v>1.047267520283139</v>
       </c>
       <c r="F6">
-        <v>0.8936336812806326</v>
+        <v>1.062966624191192</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050719259225519</v>
+        <v>1.068568464422702</v>
       </c>
       <c r="J6">
-        <v>0.9151738552646185</v>
+        <v>1.054044259837105</v>
       </c>
       <c r="K6">
-        <v>1.039422122093321</v>
+        <v>1.074323251004351</v>
       </c>
       <c r="L6">
-        <v>0.9212522853574275</v>
+        <v>1.056580460164969</v>
       </c>
       <c r="M6">
-        <v>0.9049050762349666</v>
+        <v>1.072118339827149</v>
       </c>
       <c r="N6">
-        <v>0.9403804080988156</v>
+        <v>1.05554112358664</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8863765041359357</v>
+        <v>1.032701228021953</v>
       </c>
       <c r="D7">
-        <v>1.028878962103938</v>
+        <v>1.063232540523398</v>
       </c>
       <c r="E7">
-        <v>0.9041739403315669</v>
+        <v>1.044454052878526</v>
       </c>
       <c r="F7">
-        <v>0.886465498414054</v>
+        <v>1.060349801699248</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050350433012134</v>
+        <v>1.067580377708434</v>
       </c>
       <c r="J7">
-        <v>0.9092052625882669</v>
+        <v>1.051298076456615</v>
       </c>
       <c r="K7">
-        <v>1.038638014144871</v>
+        <v>1.072620544772369</v>
       </c>
       <c r="L7">
-        <v>0.9155818258804237</v>
+        <v>1.054041171042268</v>
       </c>
       <c r="M7">
-        <v>0.8981558191355377</v>
+        <v>1.069767812632339</v>
       </c>
       <c r="N7">
-        <v>0.9360601306993027</v>
+        <v>1.052791040310758</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8544333654737147</v>
+        <v>1.018240004745851</v>
       </c>
       <c r="D8">
-        <v>1.024316734034517</v>
+        <v>1.054709260606376</v>
       </c>
       <c r="E8">
-        <v>0.8759140301688778</v>
+        <v>1.032213892338906</v>
       </c>
       <c r="F8">
-        <v>0.8530070042871788</v>
+        <v>1.048975775681885</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048692855248919</v>
+        <v>1.063247375754906</v>
       </c>
       <c r="J8">
-        <v>0.8813101289351134</v>
+        <v>1.039332016666036</v>
       </c>
       <c r="K8">
-        <v>1.035177093591588</v>
+        <v>1.065195850498677</v>
       </c>
       <c r="L8">
-        <v>0.8890860513228451</v>
+        <v>1.042974494022505</v>
       </c>
       <c r="M8">
-        <v>0.8666303371018721</v>
+        <v>1.059530819027346</v>
       </c>
       <c r="N8">
-        <v>0.9158613611786964</v>
+        <v>1.04080798734275</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7736644378268711</v>
+        <v>0.9901535625732215</v>
       </c>
       <c r="D9">
-        <v>1.015507248178864</v>
+        <v>1.038249098545754</v>
       </c>
       <c r="E9">
-        <v>0.8049295728018139</v>
+        <v>1.008489325949129</v>
       </c>
       <c r="F9">
-        <v>0.7685264270151611</v>
+        <v>1.026982388846457</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045316807020323</v>
+        <v>1.054721251158559</v>
       </c>
       <c r="J9">
-        <v>0.8108428176494715</v>
+        <v>1.016058880328587</v>
       </c>
       <c r="K9">
-        <v>1.028353643349236</v>
+        <v>1.050750660924801</v>
       </c>
       <c r="L9">
-        <v>0.8222446159660479</v>
+        <v>1.021446155097269</v>
       </c>
       <c r="M9">
-        <v>0.7869612022564351</v>
+        <v>1.039652355146039</v>
       </c>
       <c r="N9">
-        <v>0.8649580651212713</v>
+        <v>1.017501800482236</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7736644378268711</v>
+        <v>0.9691559385294222</v>
       </c>
       <c r="D10">
-        <v>1.015507248178864</v>
+        <v>1.026046954832222</v>
       </c>
       <c r="E10">
-        <v>0.8049295728018139</v>
+        <v>0.9908061964788878</v>
       </c>
       <c r="F10">
-        <v>0.7685264270151611</v>
+        <v>1.01063835494835</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045316807020323</v>
+        <v>1.048286728295449</v>
       </c>
       <c r="J10">
-        <v>0.8108428176494715</v>
+        <v>0.9986491064419779</v>
       </c>
       <c r="K10">
-        <v>1.028353643349236</v>
+        <v>1.03996132711695</v>
       </c>
       <c r="L10">
-        <v>0.8222446159660479</v>
+        <v>1.005343455974299</v>
       </c>
       <c r="M10">
-        <v>0.7869612022564351</v>
+        <v>1.024818150956761</v>
       </c>
       <c r="N10">
-        <v>0.8649580651212713</v>
+        <v>1.000067302719779</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7736644378268711</v>
+        <v>0.959368807898838</v>
       </c>
       <c r="D11">
-        <v>1.015507248178864</v>
+        <v>1.020395290089027</v>
       </c>
       <c r="E11">
-        <v>0.8049295728018139</v>
+        <v>0.9825827229623221</v>
       </c>
       <c r="F11">
-        <v>0.7685264270151611</v>
+        <v>1.003052848469299</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045316807020323</v>
+        <v>1.045277768683848</v>
       </c>
       <c r="J11">
-        <v>0.8108428176494715</v>
+        <v>0.9905353353074299</v>
       </c>
       <c r="K11">
-        <v>1.028353643349236</v>
+        <v>1.034942564937256</v>
       </c>
       <c r="L11">
-        <v>0.8222446159660479</v>
+        <v>0.9978407521117908</v>
       </c>
       <c r="M11">
-        <v>0.7869612022564351</v>
+        <v>1.017917421272286</v>
       </c>
       <c r="N11">
-        <v>0.8649580651212713</v>
+        <v>0.9919420090995573</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7736644378268711</v>
+        <v>0.95561168989211</v>
       </c>
       <c r="D12">
-        <v>1.015507248178864</v>
+        <v>1.018232274272396</v>
       </c>
       <c r="E12">
-        <v>0.8049295728018139</v>
+        <v>0.9794293358776717</v>
       </c>
       <c r="F12">
-        <v>0.7685264270151611</v>
+        <v>1.000146766405121</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045316807020323</v>
+        <v>1.044121698356361</v>
       </c>
       <c r="J12">
-        <v>0.8108428176494715</v>
+        <v>0.9874211393511237</v>
       </c>
       <c r="K12">
-        <v>1.028353643349236</v>
+        <v>1.033018314799763</v>
       </c>
       <c r="L12">
-        <v>0.8222446159660479</v>
+        <v>0.9949615415026815</v>
       </c>
       <c r="M12">
-        <v>0.7869612022564351</v>
+        <v>1.015271155142363</v>
       </c>
       <c r="N12">
-        <v>0.8649580651212713</v>
+        <v>0.9888233906277897</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7736644378268711</v>
+        <v>0.9564234391482204</v>
       </c>
       <c r="D13">
-        <v>1.015507248178864</v>
+        <v>1.018699290531704</v>
       </c>
       <c r="E13">
-        <v>0.8049295728018139</v>
+        <v>0.9801104770247301</v>
       </c>
       <c r="F13">
-        <v>0.7685264270151611</v>
+        <v>1.000774361785565</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045316807020323</v>
+        <v>1.044371509916341</v>
       </c>
       <c r="J13">
-        <v>0.8108428176494715</v>
+        <v>0.9880939493503884</v>
       </c>
       <c r="K13">
-        <v>1.028353643349236</v>
+        <v>1.033433939363284</v>
       </c>
       <c r="L13">
-        <v>0.8222446159660479</v>
+        <v>0.9955835606745461</v>
       </c>
       <c r="M13">
-        <v>0.7869612022564351</v>
+        <v>1.01584275716513</v>
       </c>
       <c r="N13">
-        <v>0.8649580651212713</v>
+        <v>0.989497156094426</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7736644378268711</v>
+        <v>0.9590608424844448</v>
       </c>
       <c r="D14">
-        <v>1.015507248178864</v>
+        <v>1.020217850796191</v>
       </c>
       <c r="E14">
-        <v>0.8049295728018139</v>
+        <v>0.98232417023364</v>
       </c>
       <c r="F14">
-        <v>0.7685264270151611</v>
+        <v>1.002814516454529</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045316807020323</v>
+        <v>1.045183023927836</v>
       </c>
       <c r="J14">
-        <v>0.8108428176494715</v>
+        <v>0.9902800556713517</v>
       </c>
       <c r="K14">
-        <v>1.028353643349236</v>
+        <v>1.034784783786461</v>
       </c>
       <c r="L14">
-        <v>0.8222446159660479</v>
+        <v>0.997604724809678</v>
       </c>
       <c r="M14">
-        <v>0.7869612022564351</v>
+        <v>1.017700449055574</v>
       </c>
       <c r="N14">
-        <v>0.8649580651212713</v>
+        <v>0.9916863669371151</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7736644378268711</v>
+        <v>0.9606691105917481</v>
       </c>
       <c r="D15">
-        <v>1.015507248178864</v>
+        <v>1.021144753480647</v>
       </c>
       <c r="E15">
-        <v>0.8049295728018139</v>
+        <v>0.9836745379858217</v>
       </c>
       <c r="F15">
-        <v>0.7685264270151611</v>
+        <v>1.00405938590195</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045316807020323</v>
+        <v>1.045677766963931</v>
       </c>
       <c r="J15">
-        <v>0.8108428176494715</v>
+        <v>0.9916132108404623</v>
       </c>
       <c r="K15">
-        <v>1.028353643349236</v>
+        <v>1.035608855320789</v>
       </c>
       <c r="L15">
-        <v>0.8222446159660479</v>
+        <v>0.9988373570306572</v>
       </c>
       <c r="M15">
-        <v>0.7869612022564351</v>
+        <v>1.018833647688592</v>
       </c>
       <c r="N15">
-        <v>0.8649580651212713</v>
+        <v>0.9930214153394811</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7736644378268711</v>
+        <v>0.9697894496964442</v>
       </c>
       <c r="D16">
-        <v>1.015507248178864</v>
+        <v>1.026413606326646</v>
       </c>
       <c r="E16">
-        <v>0.8049295728018139</v>
+        <v>0.9913389276304221</v>
       </c>
       <c r="F16">
-        <v>0.7685264270151611</v>
+        <v>1.011130098851753</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045316807020323</v>
+        <v>1.048481333785124</v>
       </c>
       <c r="J16">
-        <v>0.8108428176494715</v>
+        <v>0.9991743544395426</v>
       </c>
       <c r="K16">
-        <v>1.028353643349236</v>
+        <v>1.040286460836252</v>
       </c>
       <c r="L16">
-        <v>0.8222446159660479</v>
+        <v>1.005829197868644</v>
       </c>
       <c r="M16">
-        <v>0.7869612022564351</v>
+        <v>1.025265166087307</v>
       </c>
       <c r="N16">
-        <v>0.8649580651212713</v>
+        <v>1.000593296629747</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7736644378268711</v>
+        <v>0.9753133372785165</v>
       </c>
       <c r="D17">
-        <v>1.015507248178864</v>
+        <v>1.029614708612335</v>
       </c>
       <c r="E17">
-        <v>0.8049295728018139</v>
+        <v>0.9959862086220292</v>
       </c>
       <c r="F17">
-        <v>0.7685264270151611</v>
+        <v>1.015421556758218</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045316807020323</v>
+        <v>1.050177153738998</v>
       </c>
       <c r="J17">
-        <v>0.8108428176494715</v>
+        <v>1.003754395681498</v>
       </c>
       <c r="K17">
-        <v>1.028353643349236</v>
+        <v>1.0431226724913</v>
       </c>
       <c r="L17">
-        <v>0.8222446159660479</v>
+        <v>1.010064982060124</v>
       </c>
       <c r="M17">
-        <v>0.7869612022564351</v>
+        <v>1.029164487307583</v>
       </c>
       <c r="N17">
-        <v>0.8649580651212713</v>
+        <v>1.005179842055604</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7736644378268711</v>
+        <v>0.9784696293670117</v>
       </c>
       <c r="D18">
-        <v>1.015507248178864</v>
+        <v>1.031447005809556</v>
       </c>
       <c r="E18">
-        <v>0.8049295728018139</v>
+        <v>0.9986432988210081</v>
       </c>
       <c r="F18">
-        <v>0.7685264270151611</v>
+        <v>1.017876583523975</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045316807020323</v>
+        <v>1.05114518977159</v>
       </c>
       <c r="J18">
-        <v>0.8108428176494715</v>
+        <v>1.006371451093362</v>
       </c>
       <c r="K18">
-        <v>1.028353643349236</v>
+        <v>1.044744136785797</v>
       </c>
       <c r="L18">
-        <v>0.8222446159660479</v>
+        <v>1.01248549185963</v>
       </c>
       <c r="M18">
-        <v>0.7869612022564351</v>
+        <v>1.03139371701555</v>
       </c>
       <c r="N18">
-        <v>0.8649580651212713</v>
+        <v>1.007800613986334</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7736644378268711</v>
+        <v>0.9795351606952711</v>
       </c>
       <c r="D19">
-        <v>1.015507248178864</v>
+        <v>1.032066085916416</v>
       </c>
       <c r="E19">
-        <v>0.8049295728018139</v>
+        <v>0.9995405734161193</v>
       </c>
       <c r="F19">
-        <v>0.7685264270151611</v>
+        <v>1.018705847178924</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045316807020323</v>
+        <v>1.051471816844692</v>
       </c>
       <c r="J19">
-        <v>0.8108428176494715</v>
+        <v>1.00725494316252</v>
       </c>
       <c r="K19">
-        <v>1.028353643349236</v>
+        <v>1.045291654290633</v>
       </c>
       <c r="L19">
-        <v>0.8222446159660479</v>
+        <v>1.013302655837796</v>
       </c>
       <c r="M19">
-        <v>0.7869612022564351</v>
+        <v>1.032146465161785</v>
       </c>
       <c r="N19">
-        <v>0.8649580651212713</v>
+        <v>1.008685360715567</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7736644378268711</v>
+        <v>0.9747275839148409</v>
       </c>
       <c r="D20">
-        <v>1.015507248178864</v>
+        <v>1.029274920293728</v>
       </c>
       <c r="E20">
-        <v>0.8049295728018139</v>
+        <v>0.9954932312245924</v>
       </c>
       <c r="F20">
-        <v>0.7685264270151611</v>
+        <v>1.014966178448983</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045316807020323</v>
+        <v>1.04999742356351</v>
       </c>
       <c r="J20">
-        <v>0.8108428176494715</v>
+        <v>1.003268718369243</v>
       </c>
       <c r="K20">
-        <v>1.028353643349236</v>
+        <v>1.042821823162791</v>
       </c>
       <c r="L20">
-        <v>0.8222446159660479</v>
+        <v>1.009615792354531</v>
       </c>
       <c r="M20">
-        <v>0.7869612022564351</v>
+        <v>1.028750873315795</v>
       </c>
       <c r="N20">
-        <v>0.8649580651212713</v>
+        <v>1.004693475025858</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7736644378268711</v>
+        <v>0.9582877143958396</v>
       </c>
       <c r="D21">
-        <v>1.015507248178864</v>
+        <v>1.019772510042145</v>
       </c>
       <c r="E21">
-        <v>0.8049295728018139</v>
+        <v>0.9816751476679375</v>
       </c>
       <c r="F21">
-        <v>0.7685264270151611</v>
+        <v>1.002216296398398</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045316807020323</v>
+        <v>1.044945159225591</v>
       </c>
       <c r="J21">
-        <v>0.8108428176494715</v>
+        <v>0.9896392022115891</v>
       </c>
       <c r="K21">
-        <v>1.028353643349236</v>
+        <v>1.034388725084848</v>
       </c>
       <c r="L21">
-        <v>0.8222446159660479</v>
+        <v>0.9970122101567334</v>
       </c>
       <c r="M21">
-        <v>0.7869612022564351</v>
+        <v>1.017155801667132</v>
       </c>
       <c r="N21">
-        <v>0.8649580651212713</v>
+        <v>0.9910446033919327</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7736644378268711</v>
+        <v>0.9472348942175634</v>
       </c>
       <c r="D22">
-        <v>1.015507248178864</v>
+        <v>1.013423396927147</v>
       </c>
       <c r="E22">
-        <v>0.8049295728018139</v>
+        <v>0.9724059179433013</v>
       </c>
       <c r="F22">
-        <v>0.7685264270151611</v>
+        <v>0.9936796150583161</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045316807020323</v>
+        <v>1.041542969319246</v>
       </c>
       <c r="J22">
-        <v>0.8108428176494715</v>
+        <v>0.9804793286000077</v>
       </c>
       <c r="K22">
-        <v>1.028353643349236</v>
+        <v>1.028733542865246</v>
       </c>
       <c r="L22">
-        <v>0.8222446159660479</v>
+        <v>0.9885445809739254</v>
       </c>
       <c r="M22">
-        <v>0.7869612022564351</v>
+        <v>1.009377328488582</v>
       </c>
       <c r="N22">
-        <v>0.8649580651212713</v>
+        <v>0.9818717217091707</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7736644378268711</v>
+        <v>0.9531691116159023</v>
       </c>
       <c r="D23">
-        <v>1.015507248178864</v>
+        <v>1.016828076043655</v>
       </c>
       <c r="E23">
-        <v>0.8049295728018139</v>
+        <v>0.9773803290636213</v>
       </c>
       <c r="F23">
-        <v>0.7685264270151611</v>
+        <v>0.998259261168965</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045316807020323</v>
+        <v>1.04336990772365</v>
       </c>
       <c r="J23">
-        <v>0.8108428176494715</v>
+        <v>0.98539674923776</v>
       </c>
       <c r="K23">
-        <v>1.028353643349236</v>
+        <v>1.031768109899386</v>
       </c>
       <c r="L23">
-        <v>0.8222446159660479</v>
+        <v>0.9930900541399643</v>
       </c>
       <c r="M23">
-        <v>0.7869612022564351</v>
+        <v>1.013551668391399</v>
       </c>
       <c r="N23">
-        <v>0.8649580651212713</v>
+        <v>0.9867961256482645</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7736644378268711</v>
+        <v>0.9749924624075247</v>
       </c>
       <c r="D24">
-        <v>1.015507248178864</v>
+        <v>1.029428563093647</v>
       </c>
       <c r="E24">
-        <v>0.8049295728018139</v>
+        <v>0.9957161510984722</v>
       </c>
       <c r="F24">
-        <v>0.7685264270151611</v>
+        <v>1.015172092088868</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045316807020323</v>
+        <v>1.050078700759126</v>
       </c>
       <c r="J24">
-        <v>0.8108428176494715</v>
+        <v>1.003488342148799</v>
       </c>
       <c r="K24">
-        <v>1.028353643349236</v>
+        <v>1.042957864960091</v>
       </c>
       <c r="L24">
-        <v>0.8222446159660479</v>
+        <v>1.009818915899938</v>
       </c>
       <c r="M24">
-        <v>0.7869612022564351</v>
+        <v>1.028937906463369</v>
       </c>
       <c r="N24">
-        <v>0.8649580651212713</v>
+        <v>1.004913410696372</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7736644378268711</v>
+        <v>0.9977709136684046</v>
       </c>
       <c r="D25">
-        <v>1.015507248178864</v>
+        <v>1.04269906959192</v>
       </c>
       <c r="E25">
-        <v>0.8049295728018139</v>
+        <v>1.014916385071223</v>
       </c>
       <c r="F25">
-        <v>0.7685264270151611</v>
+        <v>1.032933323131197</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045316807020323</v>
+        <v>1.05704492078785</v>
       </c>
       <c r="J25">
-        <v>0.8108428176494715</v>
+        <v>1.022373529037229</v>
       </c>
       <c r="K25">
-        <v>1.028353643349236</v>
+        <v>1.054668821168146</v>
       </c>
       <c r="L25">
-        <v>0.8222446159660479</v>
+        <v>1.02728747369375</v>
       </c>
       <c r="M25">
-        <v>0.7869612022564351</v>
+        <v>1.045041032009307</v>
       </c>
       <c r="N25">
-        <v>0.8649580651212713</v>
+        <v>1.023825416716345</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014356381102612</v>
+        <v>0.9929868569988053</v>
       </c>
       <c r="D2">
-        <v>1.052425233783207</v>
+        <v>1.038908291712152</v>
       </c>
       <c r="E2">
-        <v>1.028929286290954</v>
+        <v>1.011808086998185</v>
       </c>
       <c r="F2">
-        <v>1.045926624115471</v>
+        <v>1.031105745542274</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062076091959047</v>
+        <v>1.051181702825482</v>
       </c>
       <c r="J2">
-        <v>1.036116013137653</v>
+        <v>1.015379372655705</v>
       </c>
       <c r="K2">
-        <v>1.06319950149353</v>
+        <v>1.049850932651927</v>
       </c>
       <c r="L2">
-        <v>1.039999781814644</v>
+        <v>1.023105331493766</v>
       </c>
       <c r="M2">
-        <v>1.056781164754484</v>
+        <v>1.042148091548397</v>
       </c>
       <c r="N2">
-        <v>1.037587416720476</v>
+        <v>1.016821327830518</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025653049494384</v>
+        <v>1.005995579896926</v>
       </c>
       <c r="D3">
-        <v>1.059075041948427</v>
+        <v>1.045293445082235</v>
       </c>
       <c r="E3">
-        <v>1.038486639893077</v>
+        <v>1.02245856355489</v>
       </c>
       <c r="F3">
-        <v>1.05480246345025</v>
+        <v>1.040337437603026</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065474536812784</v>
+        <v>1.053702618843446</v>
       </c>
       <c r="J3">
-        <v>1.045468003133125</v>
+        <v>1.026324123149112</v>
       </c>
       <c r="K3">
-        <v>1.069003981069592</v>
+        <v>1.055377819592502</v>
       </c>
       <c r="L3">
-        <v>1.048649666100149</v>
+        <v>1.032811926226913</v>
       </c>
       <c r="M3">
-        <v>1.064779055841952</v>
+        <v>1.050478952188201</v>
       </c>
       <c r="N3">
-        <v>1.046952687614431</v>
+        <v>1.027781621125006</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032662484255706</v>
+        <v>1.014027454064636</v>
       </c>
       <c r="D4">
-        <v>1.063209670857869</v>
+        <v>1.049249149648646</v>
       </c>
       <c r="E4">
-        <v>1.044421241794381</v>
+        <v>1.029042348754646</v>
       </c>
       <c r="F4">
-        <v>1.060319289187538</v>
+        <v>1.046048488849968</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067568835890477</v>
+        <v>1.055247685290301</v>
       </c>
       <c r="J4">
-        <v>1.051266040340616</v>
+        <v>1.033079017441627</v>
       </c>
       <c r="K4">
-        <v>1.072600677998</v>
+        <v>1.058787408376126</v>
       </c>
       <c r="L4">
-        <v>1.054011547207852</v>
+        <v>1.038802452080259</v>
       </c>
       <c r="M4">
-        <v>1.069740394367211</v>
+        <v>1.055621186109552</v>
       </c>
       <c r="N4">
-        <v>1.0527589586998</v>
+        <v>1.034546108142214</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035543094210868</v>
+        <v>1.017320089409172</v>
       </c>
       <c r="D5">
-        <v>1.064910481966383</v>
+        <v>1.050873320292834</v>
       </c>
       <c r="E5">
-        <v>1.046860987551463</v>
+        <v>1.031742908091124</v>
       </c>
       <c r="F5">
-        <v>1.062588450744467</v>
+        <v>1.048391852809545</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068425888199235</v>
+        <v>1.055878096596807</v>
       </c>
       <c r="J5">
-        <v>1.053647551663925</v>
+        <v>1.035847339506484</v>
       </c>
       <c r="K5">
-        <v>1.074077320251105</v>
+        <v>1.060184003675021</v>
       </c>
       <c r="L5">
-        <v>1.056213653404467</v>
+        <v>1.041257357652019</v>
       </c>
       <c r="M5">
-        <v>1.071778764469498</v>
+        <v>1.057728454344656</v>
       </c>
       <c r="N5">
-        <v>1.055143852042351</v>
+        <v>1.037318361541934</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03602303506222</v>
+        <v>1.017868234228987</v>
       </c>
       <c r="D6">
-        <v>1.065193940811399</v>
+        <v>1.05114383770436</v>
       </c>
       <c r="E6">
-        <v>1.047267520283139</v>
+        <v>1.03219256925466</v>
       </c>
       <c r="F6">
-        <v>1.062966624191192</v>
+        <v>1.048782078094417</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068568464422702</v>
+        <v>1.055982862747456</v>
       </c>
       <c r="J6">
-        <v>1.054044259837105</v>
+        <v>1.036308145466464</v>
       </c>
       <c r="K6">
-        <v>1.074323251004351</v>
+        <v>1.060416422764381</v>
       </c>
       <c r="L6">
-        <v>1.056580460164969</v>
+        <v>1.04166598096116</v>
       </c>
       <c r="M6">
-        <v>1.072118339827149</v>
+        <v>1.05807920714596</v>
       </c>
       <c r="N6">
-        <v>1.05554112358664</v>
+        <v>1.037779821899232</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032701228021953</v>
+        <v>1.014071770198737</v>
       </c>
       <c r="D7">
-        <v>1.063232540523398</v>
+        <v>1.049271000351367</v>
       </c>
       <c r="E7">
-        <v>1.044454052878526</v>
+        <v>1.029078690256694</v>
       </c>
       <c r="F7">
-        <v>1.060349801699248</v>
+        <v>1.046080020753784</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067580377708434</v>
+        <v>1.055256182252139</v>
       </c>
       <c r="J7">
-        <v>1.051298076456615</v>
+        <v>1.03311628024253</v>
       </c>
       <c r="K7">
-        <v>1.072620544772369</v>
+        <v>1.05880621054856</v>
       </c>
       <c r="L7">
-        <v>1.054041171042268</v>
+        <v>1.038835496930984</v>
       </c>
       <c r="M7">
-        <v>1.069767812632339</v>
+        <v>1.055649551776074</v>
       </c>
       <c r="N7">
-        <v>1.052791040310758</v>
+        <v>1.034583423860569</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018240004745851</v>
+        <v>0.9974685086268912</v>
       </c>
       <c r="D8">
-        <v>1.054709260606376</v>
+        <v>1.041104754598607</v>
       </c>
       <c r="E8">
-        <v>1.032213892338906</v>
+        <v>1.015475369740839</v>
       </c>
       <c r="F8">
-        <v>1.048975775681885</v>
+        <v>1.034283411774443</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063247375754906</v>
+        <v>1.052052457803352</v>
       </c>
       <c r="J8">
-        <v>1.039332016666036</v>
+        <v>1.019150399782492</v>
       </c>
       <c r="K8">
-        <v>1.065195850498677</v>
+        <v>1.051755298634118</v>
       </c>
       <c r="L8">
-        <v>1.042974494022505</v>
+        <v>1.026449719419115</v>
       </c>
       <c r="M8">
-        <v>1.059530819027346</v>
+        <v>1.045018184934032</v>
       </c>
       <c r="N8">
-        <v>1.04080798734275</v>
+        <v>1.020597710248368</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9901535625732215</v>
+        <v>0.9647999416517891</v>
       </c>
       <c r="D9">
-        <v>1.038249098545754</v>
+        <v>1.025188136551897</v>
       </c>
       <c r="E9">
-        <v>1.008489325949129</v>
+        <v>0.9887969479510095</v>
       </c>
       <c r="F9">
-        <v>1.026982388846457</v>
+        <v>1.011199043867976</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054721251158559</v>
+        <v>1.045666681536245</v>
       </c>
       <c r="J9">
-        <v>1.016058880328587</v>
+        <v>0.9916600135119721</v>
       </c>
       <c r="K9">
-        <v>1.050750660924801</v>
+        <v>1.037885357147005</v>
       </c>
       <c r="L9">
-        <v>1.021446155097269</v>
+        <v>1.00207444014625</v>
       </c>
       <c r="M9">
-        <v>1.039652355146039</v>
+        <v>1.024113000380057</v>
       </c>
       <c r="N9">
-        <v>1.017501800482236</v>
+        <v>0.9930682844761524</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9691559385294222</v>
+        <v>0.9399051037571704</v>
       </c>
       <c r="D10">
-        <v>1.026046954832222</v>
+        <v>1.013232843336995</v>
       </c>
       <c r="E10">
-        <v>0.9908061964788878</v>
+        <v>0.9685651566074045</v>
       </c>
       <c r="F10">
-        <v>1.01063835494835</v>
+        <v>0.9937540822263975</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048286728295449</v>
+        <v>1.040768430012299</v>
       </c>
       <c r="J10">
-        <v>0.9986491064419779</v>
+        <v>0.970724011316192</v>
       </c>
       <c r="K10">
-        <v>1.03996132711695</v>
+        <v>1.027367215567195</v>
       </c>
       <c r="L10">
-        <v>1.005343455974299</v>
+        <v>0.9835261590309274</v>
       </c>
       <c r="M10">
-        <v>1.024818150956761</v>
+        <v>1.008237031866325</v>
       </c>
       <c r="N10">
-        <v>1.000067302719779</v>
+        <v>0.9721025507558615</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.959368807898838</v>
+        <v>0.928124595573301</v>
       </c>
       <c r="D11">
-        <v>1.020395290089027</v>
+        <v>1.007637752424588</v>
       </c>
       <c r="E11">
-        <v>0.9825827229623221</v>
+        <v>0.9590264948286883</v>
       </c>
       <c r="F11">
-        <v>1.003052848469299</v>
+        <v>0.9855518748176653</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045277768683848</v>
+        <v>1.038450443502251</v>
       </c>
       <c r="J11">
-        <v>0.9905353353074299</v>
+        <v>0.9608264548466523</v>
       </c>
       <c r="K11">
-        <v>1.034942564937256</v>
+        <v>1.022417055130944</v>
       </c>
       <c r="L11">
-        <v>0.9978407521117908</v>
+        <v>0.9747648104034862</v>
       </c>
       <c r="M11">
-        <v>1.017917421272286</v>
+        <v>1.000751503924909</v>
       </c>
       <c r="N11">
-        <v>0.9919420090995573</v>
+        <v>0.9621909386208692</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.95561168989211</v>
+        <v>0.923567350280359</v>
       </c>
       <c r="D12">
-        <v>1.018232274272396</v>
+        <v>1.005484983560757</v>
       </c>
       <c r="E12">
-        <v>0.9794293358776717</v>
+        <v>0.955343146538015</v>
       </c>
       <c r="F12">
-        <v>1.000146766405121</v>
+        <v>0.9823888763338459</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044121698356361</v>
+        <v>1.03755457272286</v>
       </c>
       <c r="J12">
-        <v>0.9874211393511237</v>
+        <v>0.9569998197694285</v>
       </c>
       <c r="K12">
-        <v>1.033018314799763</v>
+        <v>1.020507849024052</v>
       </c>
       <c r="L12">
-        <v>0.9949615415026815</v>
+        <v>0.9713790037772401</v>
       </c>
       <c r="M12">
-        <v>1.015271155142363</v>
+        <v>0.99786143835631</v>
       </c>
       <c r="N12">
-        <v>0.9888233906277897</v>
+        <v>0.9583588692829146</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9564234391482204</v>
+        <v>0.9245537135323966</v>
       </c>
       <c r="D13">
-        <v>1.018699290531704</v>
+        <v>1.005950357493723</v>
       </c>
       <c r="E13">
-        <v>0.9801104770247301</v>
+        <v>0.9561400402088839</v>
       </c>
       <c r="F13">
-        <v>1.000774361785565</v>
+        <v>0.9830729829337391</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044371509916341</v>
+        <v>1.037748420300737</v>
       </c>
       <c r="J13">
-        <v>0.9880939493503884</v>
+        <v>0.9578279375651305</v>
       </c>
       <c r="K13">
-        <v>1.033433939363284</v>
+        <v>1.020920785066618</v>
       </c>
       <c r="L13">
-        <v>0.9955835606745461</v>
+        <v>0.9721116448023998</v>
       </c>
       <c r="M13">
-        <v>1.01584275716513</v>
+        <v>0.9984866738911543</v>
       </c>
       <c r="N13">
-        <v>0.989497156094426</v>
+        <v>0.9591881631008728</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9590608424844448</v>
+        <v>0.9277518087687805</v>
       </c>
       <c r="D14">
-        <v>1.020217850796191</v>
+        <v>1.007461403840448</v>
       </c>
       <c r="E14">
-        <v>0.98232417023364</v>
+        <v>0.9587250507588518</v>
       </c>
       <c r="F14">
-        <v>1.002814516454529</v>
+        <v>0.9852929239448102</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045183023927836</v>
+        <v>1.038377138095086</v>
       </c>
       <c r="J14">
-        <v>0.9902800556713517</v>
+        <v>0.9605133833029196</v>
       </c>
       <c r="K14">
-        <v>1.034784783786461</v>
+        <v>1.022260753690703</v>
       </c>
       <c r="L14">
-        <v>0.997604724809678</v>
+        <v>0.9744877707662234</v>
       </c>
       <c r="M14">
-        <v>1.017700449055574</v>
+        <v>1.000514968887218</v>
       </c>
       <c r="N14">
-        <v>0.9916863669371151</v>
+        <v>0.9618774224796348</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9606691105917481</v>
+        <v>0.9296971218877463</v>
       </c>
       <c r="D15">
-        <v>1.021144753480647</v>
+        <v>1.008382128547228</v>
       </c>
       <c r="E15">
-        <v>0.9836745379858217</v>
+        <v>0.9602983526993394</v>
       </c>
       <c r="F15">
-        <v>1.00405938590195</v>
+        <v>0.9866446229274212</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045677766963931</v>
+        <v>1.038759706742376</v>
       </c>
       <c r="J15">
-        <v>0.9916132108404623</v>
+        <v>0.9621471778093432</v>
       </c>
       <c r="K15">
-        <v>1.035608855320789</v>
+        <v>1.023076623603355</v>
       </c>
       <c r="L15">
-        <v>0.9988373570306572</v>
+        <v>0.9759335942238834</v>
       </c>
       <c r="M15">
-        <v>1.018833647688592</v>
+        <v>1.001749518859268</v>
       </c>
       <c r="N15">
-        <v>0.9930214153394811</v>
+        <v>0.9635135371616563</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9697894496964442</v>
+        <v>0.9406634092685804</v>
       </c>
       <c r="D16">
-        <v>1.026413606326646</v>
+        <v>1.013594438393991</v>
       </c>
       <c r="E16">
-        <v>0.9913389276304221</v>
+        <v>0.9691799739336253</v>
       </c>
       <c r="F16">
-        <v>1.011130098851753</v>
+        <v>0.9942832848294032</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048481333785124</v>
+        <v>1.040917701176948</v>
       </c>
       <c r="J16">
-        <v>0.9991743544395426</v>
+        <v>0.9713613644231525</v>
       </c>
       <c r="K16">
-        <v>1.040286460836252</v>
+        <v>1.027686533844532</v>
       </c>
       <c r="L16">
-        <v>1.005829197868644</v>
+        <v>0.9840905292840068</v>
       </c>
       <c r="M16">
-        <v>1.025265166087307</v>
+        <v>1.008719545414809</v>
       </c>
       <c r="N16">
-        <v>1.000593296629747</v>
+        <v>0.9727408089773393</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9753133372785165</v>
+        <v>0.947255166191654</v>
       </c>
       <c r="D17">
-        <v>1.029614708612335</v>
+        <v>1.016744756429458</v>
       </c>
       <c r="E17">
-        <v>0.9959862086220292</v>
+        <v>0.9745284214741587</v>
       </c>
       <c r="F17">
-        <v>1.015421556758218</v>
+        <v>0.9988895159068759</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050177153738998</v>
+        <v>1.042215345969778</v>
       </c>
       <c r="J17">
-        <v>1.003754395681498</v>
+        <v>0.9769028340374544</v>
       </c>
       <c r="K17">
-        <v>1.0431226724913</v>
+        <v>1.030465424001749</v>
       </c>
       <c r="L17">
-        <v>1.010064982060124</v>
+        <v>0.9889983025255324</v>
       </c>
       <c r="M17">
-        <v>1.029164487307583</v>
+        <v>1.012917043987838</v>
       </c>
       <c r="N17">
-        <v>1.005179842055604</v>
+        <v>0.9782901481141089</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9784696293670117</v>
+        <v>0.9510059653354614</v>
       </c>
       <c r="D18">
-        <v>1.031447005809556</v>
+        <v>1.018542852332971</v>
       </c>
       <c r="E18">
-        <v>0.9986432988210081</v>
+        <v>0.9775748807774887</v>
       </c>
       <c r="F18">
-        <v>1.017876583523975</v>
+        <v>1.001515210851134</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05114518977159</v>
+        <v>1.042953654825955</v>
       </c>
       <c r="J18">
-        <v>1.006371451093362</v>
+        <v>0.9800568254644323</v>
       </c>
       <c r="K18">
-        <v>1.044744136785797</v>
+        <v>1.032049008305565</v>
       </c>
       <c r="L18">
-        <v>1.01248549185963</v>
+        <v>0.991792263680526</v>
       </c>
       <c r="M18">
-        <v>1.03139371701555</v>
+        <v>1.015307840938276</v>
       </c>
       <c r="N18">
-        <v>1.007800613986334</v>
+        <v>0.9814486185706809</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9795351606952711</v>
+        <v>0.9522697337811074</v>
       </c>
       <c r="D19">
-        <v>1.032066085916416</v>
+        <v>1.019149569354312</v>
       </c>
       <c r="E19">
-        <v>0.9995405734161193</v>
+        <v>0.9786018298212444</v>
       </c>
       <c r="F19">
-        <v>1.018705847178924</v>
+        <v>1.002400638964323</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051471816844692</v>
+        <v>1.043202382728907</v>
       </c>
       <c r="J19">
-        <v>1.00725494316252</v>
+        <v>0.981119630173378</v>
       </c>
       <c r="K19">
-        <v>1.045291654290633</v>
+        <v>1.032582928735151</v>
       </c>
       <c r="L19">
-        <v>1.013302655837796</v>
+        <v>0.9927338473754664</v>
       </c>
       <c r="M19">
-        <v>1.032146465161785</v>
+        <v>1.016113740818825</v>
       </c>
       <c r="N19">
-        <v>1.008685360715567</v>
+        <v>0.9825129325842189</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9747275839148409</v>
+        <v>0.9465578570903427</v>
       </c>
       <c r="D20">
-        <v>1.029274920293728</v>
+        <v>1.016410909170776</v>
       </c>
       <c r="E20">
-        <v>0.9954932312245924</v>
+        <v>0.9739623018881077</v>
       </c>
       <c r="F20">
-        <v>1.014966178448983</v>
+        <v>0.9984017438447949</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04999742356351</v>
+        <v>1.042078076560937</v>
       </c>
       <c r="J20">
-        <v>1.003268718369243</v>
+        <v>0.9763165393937003</v>
       </c>
       <c r="K20">
-        <v>1.042821823162791</v>
+        <v>1.030171202613223</v>
       </c>
       <c r="L20">
-        <v>1.009615792354531</v>
+        <v>0.9884789837857718</v>
       </c>
       <c r="M20">
-        <v>1.028750873315795</v>
+        <v>1.012472754998738</v>
       </c>
       <c r="N20">
-        <v>1.004693475025858</v>
+        <v>0.9777030208647117</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9582877143958396</v>
+        <v>0.9268153572941729</v>
       </c>
       <c r="D21">
-        <v>1.019772510042145</v>
+        <v>1.007018606413024</v>
       </c>
       <c r="E21">
-        <v>0.9816751476679375</v>
+        <v>0.9579679258531522</v>
       </c>
       <c r="F21">
-        <v>1.002216296398398</v>
+        <v>0.9846425993457578</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044945159225591</v>
+        <v>1.038193009315186</v>
       </c>
       <c r="J21">
-        <v>0.9896392022115891</v>
+        <v>0.9597269764077152</v>
       </c>
       <c r="K21">
-        <v>1.034388725084848</v>
+        <v>1.021868218091411</v>
       </c>
       <c r="L21">
-        <v>0.9970122101567334</v>
+        <v>0.9737918990437114</v>
       </c>
       <c r="M21">
-        <v>1.017155801667132</v>
+        <v>0.9999208829185818</v>
       </c>
       <c r="N21">
-        <v>0.9910446033919327</v>
+        <v>0.9610898987964372</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9472348942175634</v>
+        <v>0.9133291037087621</v>
       </c>
       <c r="D22">
-        <v>1.013423396927147</v>
+        <v>1.000673527145378</v>
       </c>
       <c r="E22">
-        <v>0.9724059179433013</v>
+        <v>0.9470824704306142</v>
       </c>
       <c r="F22">
-        <v>0.9936796150583161</v>
+        <v>0.9753043887302406</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041542969319246</v>
+        <v>1.035544633737173</v>
       </c>
       <c r="J22">
-        <v>0.9804793286000077</v>
+        <v>0.9484081143517602</v>
       </c>
       <c r="K22">
-        <v>1.028733542865246</v>
+        <v>1.01623165312915</v>
       </c>
       <c r="L22">
-        <v>0.9885445809739254</v>
+        <v>0.9637805404281333</v>
       </c>
       <c r="M22">
-        <v>1.009377328488582</v>
+        <v>0.9913814752197478</v>
       </c>
       <c r="N22">
-        <v>0.9818717217091707</v>
+        <v>0.949754962658071</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9531691116159023</v>
+        <v>0.9205933858799876</v>
       </c>
       <c r="D23">
-        <v>1.016828076043655</v>
+        <v>1.004083769292432</v>
       </c>
       <c r="E23">
-        <v>0.9773803290636213</v>
+        <v>0.9529415505213584</v>
       </c>
       <c r="F23">
-        <v>0.998259261168965</v>
+        <v>0.9803278966276746</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04336990772365</v>
+        <v>1.036970307143083</v>
       </c>
       <c r="J23">
-        <v>0.98539674923776</v>
+        <v>0.9545033721195026</v>
       </c>
       <c r="K23">
-        <v>1.031768109899386</v>
+        <v>1.019263810846467</v>
       </c>
       <c r="L23">
-        <v>0.9930900541399643</v>
+        <v>0.9691706476671496</v>
       </c>
       <c r="M23">
-        <v>1.013551668391399</v>
+        <v>0.9959772864761466</v>
       </c>
       <c r="N23">
-        <v>0.9867961256482645</v>
+        <v>0.9558588763909796</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9749924624075247</v>
+        <v>0.9468732294988936</v>
       </c>
       <c r="D24">
-        <v>1.029428563093647</v>
+        <v>1.016561881391206</v>
       </c>
       <c r="E24">
-        <v>0.9957161510984722</v>
+        <v>0.9742183314869963</v>
       </c>
       <c r="F24">
-        <v>1.015172092088868</v>
+        <v>0.9986223343174248</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050078700759126</v>
+        <v>1.042140159752474</v>
       </c>
       <c r="J24">
-        <v>1.003488342148799</v>
+        <v>0.9765817007183143</v>
       </c>
       <c r="K24">
-        <v>1.042957864960091</v>
+        <v>1.030304263051537</v>
       </c>
       <c r="L24">
-        <v>1.009818915899938</v>
+        <v>0.9887138521793665</v>
       </c>
       <c r="M24">
-        <v>1.028937906463369</v>
+        <v>1.012673686580372</v>
       </c>
       <c r="N24">
-        <v>1.004913410696372</v>
+        <v>0.9779685587488207</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9977709136684046</v>
+        <v>0.9737230358273371</v>
       </c>
       <c r="D25">
-        <v>1.04269906959192</v>
+        <v>1.029512384945339</v>
       </c>
       <c r="E25">
-        <v>1.014916385071223</v>
+        <v>0.9960707096064269</v>
       </c>
       <c r="F25">
-        <v>1.032933323131197</v>
+        <v>1.017484851125235</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05704492078785</v>
+        <v>1.047418138944576</v>
       </c>
       <c r="J25">
-        <v>1.022373529037229</v>
+        <v>0.9991682803762659</v>
       </c>
       <c r="K25">
-        <v>1.054668821168146</v>
+        <v>1.041669204331779</v>
       </c>
       <c r="L25">
-        <v>1.02728747369375</v>
+        <v>1.0087303305344</v>
       </c>
       <c r="M25">
-        <v>1.045041032009307</v>
+        <v>1.029817668110293</v>
       </c>
       <c r="N25">
-        <v>1.023825416716345</v>
+        <v>1.000587213940604</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9929868569988053</v>
+        <v>1.079922431143857</v>
       </c>
       <c r="D2">
-        <v>1.038908291712152</v>
+        <v>1.068408849122455</v>
       </c>
       <c r="E2">
-        <v>1.011808086998185</v>
+        <v>1.080652993265951</v>
       </c>
       <c r="F2">
-        <v>1.031105745542274</v>
+        <v>1.085530971708867</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051181702825482</v>
+        <v>1.047003577455591</v>
       </c>
       <c r="J2">
-        <v>1.015379372655705</v>
+        <v>1.084804525686302</v>
       </c>
       <c r="K2">
-        <v>1.049850932651927</v>
+        <v>1.071114109894288</v>
       </c>
       <c r="L2">
-        <v>1.023105331493766</v>
+        <v>1.083325866187125</v>
       </c>
       <c r="M2">
-        <v>1.042148091548397</v>
+        <v>1.088191161249666</v>
       </c>
       <c r="N2">
-        <v>1.016821327830518</v>
+        <v>1.086345072541594</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005995579896926</v>
+        <v>1.082287263563589</v>
       </c>
       <c r="D3">
-        <v>1.045293445082235</v>
+        <v>1.069542461723675</v>
       </c>
       <c r="E3">
-        <v>1.02245856355489</v>
+        <v>1.082615474642376</v>
       </c>
       <c r="F3">
-        <v>1.040337437603026</v>
+        <v>1.087214882189535</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053702618843446</v>
+        <v>1.04735297314445</v>
       </c>
       <c r="J3">
-        <v>1.026324123149112</v>
+        <v>1.086823994124931</v>
       </c>
       <c r="K3">
-        <v>1.055377819592502</v>
+        <v>1.072062905676909</v>
       </c>
       <c r="L3">
-        <v>1.032811926226913</v>
+        <v>1.085103873586797</v>
       </c>
       <c r="M3">
-        <v>1.050478952188201</v>
+        <v>1.089692203831495</v>
       </c>
       <c r="N3">
-        <v>1.027781621125006</v>
+        <v>1.088367408857043</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014027454064636</v>
+        <v>1.08381206862942</v>
       </c>
       <c r="D4">
-        <v>1.049249149648646</v>
+        <v>1.070272419129102</v>
       </c>
       <c r="E4">
-        <v>1.029042348754646</v>
+        <v>1.0838804263663</v>
       </c>
       <c r="F4">
-        <v>1.046048488849968</v>
+        <v>1.088299859572129</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055247685290301</v>
+        <v>1.047576197965522</v>
       </c>
       <c r="J4">
-        <v>1.033079017441627</v>
+        <v>1.088125230041558</v>
       </c>
       <c r="K4">
-        <v>1.058787408376126</v>
+        <v>1.07267269407539</v>
       </c>
       <c r="L4">
-        <v>1.038802452080259</v>
+        <v>1.086249046268226</v>
       </c>
       <c r="M4">
-        <v>1.055621186109552</v>
+        <v>1.090658381387943</v>
       </c>
       <c r="N4">
-        <v>1.034546108142214</v>
+        <v>1.089670492677926</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017320089409172</v>
+        <v>1.08445183875056</v>
       </c>
       <c r="D5">
-        <v>1.050873320292834</v>
+        <v>1.07057845228047</v>
       </c>
       <c r="E5">
-        <v>1.031742908091124</v>
+        <v>1.084411065127898</v>
       </c>
       <c r="F5">
-        <v>1.048391852809545</v>
+        <v>1.08875489866221</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055878096596807</v>
+        <v>1.047669362916843</v>
       </c>
       <c r="J5">
-        <v>1.035847339506484</v>
+        <v>1.088670983659587</v>
       </c>
       <c r="K5">
-        <v>1.060184003675021</v>
+        <v>1.072928068850835</v>
       </c>
       <c r="L5">
-        <v>1.041257357652019</v>
+        <v>1.086729229751892</v>
       </c>
       <c r="M5">
-        <v>1.057728454344656</v>
+        <v>1.091063362894664</v>
       </c>
       <c r="N5">
-        <v>1.037318361541934</v>
+        <v>1.090217021328691</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017868234228987</v>
+        <v>1.084559186207827</v>
       </c>
       <c r="D6">
-        <v>1.05114383770436</v>
+        <v>1.070629787646865</v>
       </c>
       <c r="E6">
-        <v>1.03219256925466</v>
+        <v>1.08450009524282</v>
       </c>
       <c r="F6">
-        <v>1.048782078094417</v>
+        <v>1.088831238712085</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055982862747456</v>
+        <v>1.047684966073276</v>
       </c>
       <c r="J6">
-        <v>1.036308145466464</v>
+        <v>1.088762543539405</v>
       </c>
       <c r="K6">
-        <v>1.060416422764381</v>
+        <v>1.072970890270413</v>
       </c>
       <c r="L6">
-        <v>1.04166598096116</v>
+        <v>1.086809782285606</v>
       </c>
       <c r="M6">
-        <v>1.05807920714596</v>
+        <v>1.091131291330522</v>
       </c>
       <c r="N6">
-        <v>1.037779821899232</v>
+        <v>1.09030871123404</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014071770198737</v>
+        <v>1.083820622165208</v>
       </c>
       <c r="D7">
-        <v>1.049271000351367</v>
+        <v>1.070276511646132</v>
       </c>
       <c r="E7">
-        <v>1.029078690256694</v>
+        <v>1.083887521257347</v>
       </c>
       <c r="F7">
-        <v>1.046080020753784</v>
+        <v>1.088305944062053</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055256182252139</v>
+        <v>1.04757744549998</v>
       </c>
       <c r="J7">
-        <v>1.03311628024253</v>
+        <v>1.088132527441261</v>
       </c>
       <c r="K7">
-        <v>1.05880621054856</v>
+        <v>1.07267611024079</v>
       </c>
       <c r="L7">
-        <v>1.038835496930984</v>
+        <v>1.086255467369027</v>
       </c>
       <c r="M7">
-        <v>1.055649551776074</v>
+        <v>1.09066379745599</v>
       </c>
       <c r="N7">
-        <v>1.034583423860569</v>
+        <v>1.089677800440773</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9974685086268912</v>
+        <v>1.080722776418491</v>
       </c>
       <c r="D8">
-        <v>1.041104754598607</v>
+        <v>1.068792704824421</v>
       </c>
       <c r="E8">
-        <v>1.015475369740839</v>
+        <v>1.081317255185319</v>
       </c>
       <c r="F8">
-        <v>1.034283411774443</v>
+        <v>1.086101028111084</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052052457803352</v>
+        <v>1.047122252278604</v>
       </c>
       <c r="J8">
-        <v>1.019150399782492</v>
+        <v>1.08548817025102</v>
       </c>
       <c r="K8">
-        <v>1.051755298634118</v>
+        <v>1.071435625752051</v>
       </c>
       <c r="L8">
-        <v>1.026449719419115</v>
+        <v>1.083927868656315</v>
       </c>
       <c r="M8">
-        <v>1.045018184934032</v>
+        <v>1.088699513654695</v>
       </c>
       <c r="N8">
-        <v>1.020597710248368</v>
+        <v>1.08702968796001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9647999416517891</v>
+        <v>1.075221047721693</v>
       </c>
       <c r="D9">
-        <v>1.025188136551897</v>
+        <v>1.06615016144023</v>
       </c>
       <c r="E9">
-        <v>0.9887969479510095</v>
+        <v>1.07674931476783</v>
       </c>
       <c r="F9">
-        <v>1.011199043867976</v>
+        <v>1.082179267542023</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045666681536245</v>
+        <v>1.046298015599048</v>
       </c>
       <c r="J9">
-        <v>0.9916600135119721</v>
+        <v>1.080785047615362</v>
       </c>
       <c r="K9">
-        <v>1.037885357147005</v>
+        <v>1.069217423735008</v>
       </c>
       <c r="L9">
-        <v>1.00207444014625</v>
+        <v>1.079784452228728</v>
       </c>
       <c r="M9">
-        <v>1.024113000380057</v>
+        <v>1.085198212920554</v>
       </c>
       <c r="N9">
-        <v>0.9930682844761524</v>
+        <v>1.082319886350753</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9399051037571704</v>
+        <v>1.071522147480748</v>
       </c>
       <c r="D10">
-        <v>1.013232843336995</v>
+        <v>1.06436890065488</v>
       </c>
       <c r="E10">
-        <v>0.9685651566074045</v>
+        <v>1.073676187612622</v>
       </c>
       <c r="F10">
-        <v>0.9937540822263975</v>
+        <v>1.079538874763551</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040768430012299</v>
+        <v>1.045733303177277</v>
       </c>
       <c r="J10">
-        <v>0.970724011316192</v>
+        <v>1.077618544047883</v>
       </c>
       <c r="K10">
-        <v>1.027367215567195</v>
+        <v>1.067716111140563</v>
       </c>
       <c r="L10">
-        <v>0.9835261590309274</v>
+        <v>1.076992362441884</v>
       </c>
       <c r="M10">
-        <v>1.008237031866325</v>
+        <v>1.08283580133391</v>
       </c>
       <c r="N10">
-        <v>0.9721025507558615</v>
+        <v>1.079148885985006</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.928124595573301</v>
+        <v>1.069912612105568</v>
       </c>
       <c r="D11">
-        <v>1.007637752424588</v>
+        <v>1.063592770048884</v>
       </c>
       <c r="E11">
-        <v>0.9590264948286883</v>
+        <v>1.072338495449324</v>
       </c>
       <c r="F11">
-        <v>0.9855518748176653</v>
+        <v>1.078389100243455</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038450443502251</v>
+        <v>1.045485088401077</v>
       </c>
       <c r="J11">
-        <v>0.9608264548466523</v>
+        <v>1.076239614088195</v>
       </c>
       <c r="K11">
-        <v>1.022417055130944</v>
+        <v>1.067060508872829</v>
       </c>
       <c r="L11">
-        <v>0.9747648104034862</v>
+        <v>1.075775914959437</v>
       </c>
       <c r="M11">
-        <v>1.000751503924909</v>
+        <v>1.081805860206515</v>
       </c>
       <c r="N11">
-        <v>0.9621909386208692</v>
+        <v>1.07776799778661</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.923567350280359</v>
+        <v>1.069313530777777</v>
       </c>
       <c r="D12">
-        <v>1.005484983560757</v>
+        <v>1.063303738390045</v>
       </c>
       <c r="E12">
-        <v>0.955343146538015</v>
+        <v>1.071840530093652</v>
       </c>
       <c r="F12">
-        <v>0.9823888763338459</v>
+        <v>1.077961023752711</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03755457272286</v>
+        <v>1.045392329099485</v>
       </c>
       <c r="J12">
-        <v>0.9569998197694285</v>
+        <v>1.075726207369488</v>
       </c>
       <c r="K12">
-        <v>1.020507849024052</v>
+        <v>1.066816143541991</v>
       </c>
       <c r="L12">
-        <v>0.9713790037772401</v>
+        <v>1.075322920088174</v>
       </c>
       <c r="M12">
-        <v>0.99786143835631</v>
+        <v>1.081422216282403</v>
       </c>
       <c r="N12">
-        <v>0.9583588692829146</v>
+        <v>1.077253861971473</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9245537135323966</v>
+        <v>1.069442092039686</v>
       </c>
       <c r="D13">
-        <v>1.005950357493723</v>
+        <v>1.063365770509976</v>
       </c>
       <c r="E13">
-        <v>0.9561400402088839</v>
+        <v>1.071947395092763</v>
       </c>
       <c r="F13">
-        <v>0.9830729829337391</v>
+        <v>1.078052893268219</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037748420300737</v>
+        <v>1.045412251794708</v>
       </c>
       <c r="J13">
-        <v>0.9578279375651305</v>
+        <v>1.075836390242188</v>
       </c>
       <c r="K13">
-        <v>1.020920785066618</v>
+        <v>1.066868599246635</v>
       </c>
       <c r="L13">
-        <v>0.9721116448023998</v>
+        <v>1.07542014168523</v>
       </c>
       <c r="M13">
-        <v>0.9984866738911543</v>
+        <v>1.081504558409076</v>
       </c>
       <c r="N13">
-        <v>0.9591881631008728</v>
+        <v>1.077364201316491</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9277518087687805</v>
+        <v>1.069863117164634</v>
       </c>
       <c r="D14">
-        <v>1.007461403840448</v>
+        <v>1.063568893836593</v>
       </c>
       <c r="E14">
-        <v>0.9587250507588518</v>
+        <v>1.072297355849972</v>
       </c>
       <c r="F14">
-        <v>0.9852929239448102</v>
+        <v>1.078353735847857</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038377138095086</v>
+        <v>1.045477432378153</v>
       </c>
       <c r="J14">
-        <v>0.9605133833029196</v>
+        <v>1.07619720064324</v>
       </c>
       <c r="K14">
-        <v>1.022260753690703</v>
+        <v>1.067040326896384</v>
       </c>
       <c r="L14">
-        <v>0.9744877707662234</v>
+        <v>1.075738493953245</v>
       </c>
       <c r="M14">
-        <v>1.000514968887218</v>
+        <v>1.081774170222018</v>
       </c>
       <c r="N14">
-        <v>0.9618774224796348</v>
+        <v>1.077725524109698</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9296971218877463</v>
+        <v>1.070122360581081</v>
       </c>
       <c r="D15">
-        <v>1.008382128547228</v>
+        <v>1.06369394598743</v>
       </c>
       <c r="E15">
-        <v>0.9602983526993394</v>
+        <v>1.072512833165143</v>
       </c>
       <c r="F15">
-        <v>0.9866446229274212</v>
+        <v>1.078538961678695</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038759706742376</v>
+        <v>1.045517517705531</v>
       </c>
       <c r="J15">
-        <v>0.9621471778093432</v>
+        <v>1.076419346290371</v>
       </c>
       <c r="K15">
-        <v>1.023076623603355</v>
+        <v>1.067146021468163</v>
       </c>
       <c r="L15">
-        <v>0.9759335942238834</v>
+        <v>1.075934487653383</v>
       </c>
       <c r="M15">
-        <v>1.001749518859268</v>
+        <v>1.081940143334607</v>
       </c>
       <c r="N15">
-        <v>0.9635135371616563</v>
+        <v>1.077947985229128</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9406634092685804</v>
+        <v>1.071628797193046</v>
       </c>
       <c r="D16">
-        <v>1.013594438393991</v>
+        <v>1.064420306695142</v>
       </c>
       <c r="E16">
-        <v>0.9691799739336253</v>
+        <v>1.073764815293587</v>
       </c>
       <c r="F16">
-        <v>0.9942832848294032</v>
+        <v>1.079615042927461</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040917701176948</v>
+        <v>1.045749698039553</v>
       </c>
       <c r="J16">
-        <v>0.9713613644231525</v>
+        <v>1.077709891339972</v>
       </c>
       <c r="K16">
-        <v>1.027686533844532</v>
+        <v>1.067759503599565</v>
       </c>
       <c r="L16">
-        <v>0.9840905292840068</v>
+        <v>1.077072934267556</v>
       </c>
       <c r="M16">
-        <v>1.008719545414809</v>
+        <v>1.082904005410567</v>
       </c>
       <c r="N16">
-        <v>0.9727408089773393</v>
+        <v>1.079240363000727</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.947255166191654</v>
+        <v>1.07257160314989</v>
       </c>
       <c r="D17">
-        <v>1.016744756429458</v>
+        <v>1.064874628388952</v>
       </c>
       <c r="E17">
-        <v>0.9745284214741587</v>
+        <v>1.074548250536453</v>
       </c>
       <c r="F17">
-        <v>0.9988895159068759</v>
+        <v>1.080288289634739</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042215345969778</v>
+        <v>1.045894345786327</v>
       </c>
       <c r="J17">
-        <v>0.9769028340374544</v>
+        <v>1.078517298523406</v>
       </c>
       <c r="K17">
-        <v>1.030465424001749</v>
+        <v>1.068142834917729</v>
       </c>
       <c r="L17">
-        <v>0.9889983025255324</v>
+        <v>1.077785033491852</v>
       </c>
       <c r="M17">
-        <v>1.012917043987838</v>
+        <v>1.08350671791718</v>
       </c>
       <c r="N17">
-        <v>0.9782901481141089</v>
+        <v>1.080048916794973</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9510059653354614</v>
+        <v>1.073120767875288</v>
       </c>
       <c r="D18">
-        <v>1.018542852332971</v>
+        <v>1.065139161341282</v>
       </c>
       <c r="E18">
-        <v>0.9775748807774887</v>
+        <v>1.075004541235864</v>
       </c>
       <c r="F18">
-        <v>1.001515210851134</v>
+        <v>1.080680360952028</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042953654825955</v>
+        <v>1.045978360750039</v>
       </c>
       <c r="J18">
-        <v>0.9800568254644323</v>
+        <v>1.078987494154708</v>
       </c>
       <c r="K18">
-        <v>1.032049008305565</v>
+        <v>1.068365893667457</v>
       </c>
       <c r="L18">
-        <v>0.991792263680526</v>
+        <v>1.078199671904012</v>
       </c>
       <c r="M18">
-        <v>1.015307840938276</v>
+        <v>1.083857596182213</v>
       </c>
       <c r="N18">
-        <v>0.9814486185706809</v>
+        <v>1.080519780158004</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9522697337811074</v>
+        <v>1.07330789157706</v>
       </c>
       <c r="D19">
-        <v>1.019149569354312</v>
+        <v>1.065229281817707</v>
       </c>
       <c r="E19">
-        <v>0.9786018298212444</v>
+        <v>1.075160011303337</v>
       </c>
       <c r="F19">
-        <v>1.002400638964323</v>
+        <v>1.080813942444146</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043202382728907</v>
+        <v>1.046006947566522</v>
       </c>
       <c r="J19">
-        <v>0.981119630173378</v>
+        <v>1.079147692385223</v>
       </c>
       <c r="K19">
-        <v>1.032582928735151</v>
+        <v>1.068441861179316</v>
       </c>
       <c r="L19">
-        <v>0.9927338473754664</v>
+        <v>1.078340932235183</v>
       </c>
       <c r="M19">
-        <v>1.016113740818825</v>
+        <v>1.083977123106443</v>
       </c>
       <c r="N19">
-        <v>0.9825129325842189</v>
+        <v>1.080680205888381</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9465578570903427</v>
+        <v>1.072470527711798</v>
       </c>
       <c r="D20">
-        <v>1.016410909170776</v>
+        <v>1.064825932204997</v>
       </c>
       <c r="E20">
-        <v>0.9739623018881077</v>
+        <v>1.074464265290928</v>
       </c>
       <c r="F20">
-        <v>0.9984017438447949</v>
+        <v>1.080216121178279</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042078076560937</v>
+        <v>1.04587886328445</v>
       </c>
       <c r="J20">
-        <v>0.9763165393937003</v>
+        <v>1.078430749351623</v>
       </c>
       <c r="K20">
-        <v>1.030171202613223</v>
+        <v>1.06810176222608</v>
       </c>
       <c r="L20">
-        <v>0.9884789837857718</v>
+        <v>1.077708706380355</v>
       </c>
       <c r="M20">
-        <v>1.012472754998738</v>
+        <v>1.083442122445002</v>
       </c>
       <c r="N20">
-        <v>0.9777030208647117</v>
+        <v>1.079962244713438</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9268153572941729</v>
+        <v>1.069739170015194</v>
       </c>
       <c r="D21">
-        <v>1.007018606413024</v>
+        <v>1.063509099698549</v>
       </c>
       <c r="E21">
-        <v>0.9579679258531522</v>
+        <v>1.072194331410484</v>
       </c>
       <c r="F21">
-        <v>0.9846425993457578</v>
+        <v>1.078265173007552</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038193009315186</v>
+        <v>1.045458253870383</v>
       </c>
       <c r="J21">
-        <v>0.9597269764077152</v>
+        <v>1.076090984694838</v>
       </c>
       <c r="K21">
-        <v>1.021868218091411</v>
+        <v>1.066989780848654</v>
       </c>
       <c r="L21">
-        <v>0.9737918990437114</v>
+        <v>1.075644779210351</v>
       </c>
       <c r="M21">
-        <v>0.9999208829185818</v>
+        <v>1.081694806230679</v>
       </c>
       <c r="N21">
-        <v>0.9610898987964372</v>
+        <v>1.077619157322466</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9133291037087621</v>
+        <v>1.068014728932472</v>
       </c>
       <c r="D22">
-        <v>1.000673527145378</v>
+        <v>1.062676852543226</v>
       </c>
       <c r="E22">
-        <v>0.9470824704306142</v>
+        <v>1.070760827974141</v>
       </c>
       <c r="F22">
-        <v>0.9753043887302406</v>
+        <v>1.077032740387893</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035544633737173</v>
+        <v>1.045190549167936</v>
       </c>
       <c r="J22">
-        <v>0.9484081143517602</v>
+        <v>1.074612858113499</v>
       </c>
       <c r="K22">
-        <v>1.01623165312915</v>
+        <v>1.06628573456628</v>
       </c>
       <c r="L22">
-        <v>0.9637805404281333</v>
+        <v>1.074340424156993</v>
       </c>
       <c r="M22">
-        <v>0.9913814752197478</v>
+        <v>1.080589949364702</v>
       </c>
       <c r="N22">
-        <v>0.949754962658071</v>
+        <v>1.076138931631837</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9205933858799876</v>
+        <v>1.06892957807749</v>
       </c>
       <c r="D23">
-        <v>1.004083769292432</v>
+        <v>1.063118455766417</v>
       </c>
       <c r="E23">
-        <v>0.9529415505213584</v>
+        <v>1.07152136452581</v>
       </c>
       <c r="F23">
-        <v>0.9803278966276746</v>
+        <v>1.077686634735098</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036970307143083</v>
+        <v>1.045332774948808</v>
       </c>
       <c r="J23">
-        <v>0.9545033721195026</v>
+        <v>1.075397119235058</v>
       </c>
       <c r="K23">
-        <v>1.019263810846467</v>
+        <v>1.066659432494106</v>
       </c>
       <c r="L23">
-        <v>0.9691706476671496</v>
+        <v>1.075032531735349</v>
       </c>
       <c r="M23">
-        <v>0.9959772864761466</v>
+        <v>1.081176256123161</v>
       </c>
       <c r="N23">
-        <v>0.9558588763909796</v>
+        <v>1.076924306494146</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9468732294988936</v>
+        <v>1.072516201692124</v>
       </c>
       <c r="D24">
-        <v>1.016561881391206</v>
+        <v>1.064847937351461</v>
       </c>
       <c r="E24">
-        <v>0.9742183314869963</v>
+        <v>1.074502216689099</v>
       </c>
       <c r="F24">
-        <v>0.9986223343174248</v>
+        <v>1.08024873291862</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042140159752474</v>
+        <v>1.045885860259262</v>
       </c>
       <c r="J24">
-        <v>0.9765817007183143</v>
+        <v>1.078469859517006</v>
       </c>
       <c r="K24">
-        <v>1.030304263051537</v>
+        <v>1.068120322850636</v>
       </c>
       <c r="L24">
-        <v>0.9887138521793665</v>
+        <v>1.077743197530922</v>
       </c>
       <c r="M24">
-        <v>1.012673686580372</v>
+        <v>1.083471312439326</v>
       </c>
       <c r="N24">
-        <v>0.9779685587488207</v>
+        <v>1.080001410419742</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9737230358273371</v>
+        <v>1.076648689940844</v>
       </c>
       <c r="D25">
-        <v>1.029512384945339</v>
+        <v>1.066836710041874</v>
       </c>
       <c r="E25">
-        <v>0.9960707096064269</v>
+        <v>1.077935013115621</v>
       </c>
       <c r="F25">
-        <v>1.017484851125235</v>
+        <v>1.083197595078523</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047418138944576</v>
+        <v>1.046513757825742</v>
       </c>
       <c r="J25">
-        <v>0.9991682803762659</v>
+        <v>1.082006256671267</v>
       </c>
       <c r="K25">
-        <v>1.041669204331779</v>
+        <v>1.069794791285531</v>
       </c>
       <c r="L25">
-        <v>1.0087303305344</v>
+        <v>1.080860756878461</v>
       </c>
       <c r="M25">
-        <v>1.029817668110293</v>
+        <v>1.086108256666544</v>
       </c>
       <c r="N25">
-        <v>1.000587213940604</v>
+        <v>1.083542829663593</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -456,120 +468,822 @@
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="C3">
+        <v>0.5405611111984063</v>
+      </c>
+      <c r="E3">
+        <v>0.5782639761548449</v>
+      </c>
+      <c r="F3">
+        <v>0.8221303822350252</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.592756239606017</v>
+      </c>
+      <c r="L3">
+        <v>0.600285752358429</v>
+      </c>
+      <c r="M3">
+        <v>0.8356908968666995</v>
+      </c>
+      <c r="N3">
+        <v>0.5935980214563484</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>0.8785100903366398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="C4">
+        <v>0.4934668583464875</v>
+      </c>
+      <c r="E4">
+        <v>0.5368246330199393</v>
+      </c>
+      <c r="F4">
+        <v>0.8041975854033987</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.5508385491441281</v>
+      </c>
+      <c r="L4">
+        <v>0.5600430914331276</v>
+      </c>
+      <c r="M4">
+        <v>0.8174200960657254</v>
+      </c>
+      <c r="N4">
+        <v>0.5516208030659775</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>0.8640451477806863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="C5">
+        <v>0.476024001535919</v>
+      </c>
+      <c r="E5">
+        <v>0.5217680931895311</v>
+      </c>
+      <c r="F5">
+        <v>0.7977252737062015</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.535456808161392</v>
+      </c>
+      <c r="L5">
+        <v>0.5453954071548016</v>
+      </c>
+      <c r="M5">
+        <v>0.8107764458959532</v>
+      </c>
+      <c r="N5">
+        <v>0.5362172182467355</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>0.8587852419199119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="C6">
+        <v>0.4731900483114623</v>
+      </c>
+      <c r="E6">
+        <v>0.5193395870002666</v>
+      </c>
+      <c r="F6">
+        <v>0.7966828138477835</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.5329666267741521</v>
+      </c>
+      <c r="L6">
+        <v>0.5430312774307307</v>
+      </c>
+      <c r="M6">
+        <v>0.8097038986162086</v>
+      </c>
+      <c r="N6">
+        <v>0.5337235005162979</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>0.8579360780175866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="C7">
+        <v>0.4932267332032958</v>
+      </c>
+      <c r="E7">
+        <v>0.5366161511335052</v>
+      </c>
+      <c r="F7">
+        <v>0.8041078416016324</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.5506261955498162</v>
+      </c>
+      <c r="L7">
+        <v>0.5598403781086346</v>
+      </c>
+      <c r="M7">
+        <v>0.8173281576910008</v>
+      </c>
+      <c r="N7">
+        <v>0.5514081479052043</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>0.8639723589424019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="C8">
+        <v>0.6084950756541423</v>
+      </c>
+      <c r="E8">
+        <v>0.6394964583291669</v>
+      </c>
+      <c r="F8">
+        <v>0.849095441935064</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.6539118311449917</v>
+      </c>
+      <c r="L8">
+        <v>0.6596048096008602</v>
+      </c>
+      <c r="M8">
+        <v>0.8627990539573663</v>
+      </c>
+      <c r="N8">
+        <v>0.6548404609499529</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>0.8999705214319033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="C9">
+        <v>0.6084950756541423</v>
+      </c>
+      <c r="E9">
+        <v>0.6394964583291669</v>
+      </c>
+      <c r="F9">
+        <v>0.849095441935064</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.6539118311449917</v>
+      </c>
+      <c r="L9">
+        <v>0.6596048096008602</v>
+      </c>
+      <c r="M9">
+        <v>0.8627990539573663</v>
+      </c>
+      <c r="N9">
+        <v>0.6548404609499529</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>0.8999705214319033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="C10">
+        <v>0.6084950756541423</v>
+      </c>
+      <c r="E10">
+        <v>0.6394964583291669</v>
+      </c>
+      <c r="F10">
+        <v>0.849095441935064</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.6539118311449917</v>
+      </c>
+      <c r="L10">
+        <v>0.6596048096008602</v>
+      </c>
+      <c r="M10">
+        <v>0.8627990539573663</v>
+      </c>
+      <c r="N10">
+        <v>0.6548404609499529</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>0.8999705214319033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="C11">
+        <v>0.6084950756541423</v>
+      </c>
+      <c r="E11">
+        <v>0.6394964583291669</v>
+      </c>
+      <c r="F11">
+        <v>0.849095441935064</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.6539118311449917</v>
+      </c>
+      <c r="L11">
+        <v>0.6596048096008602</v>
+      </c>
+      <c r="M11">
+        <v>0.8627990539573663</v>
+      </c>
+      <c r="N11">
+        <v>0.6548404609499529</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>0.8999705214319033</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="C12">
+        <v>0.6084950756541423</v>
+      </c>
+      <c r="E12">
+        <v>0.6394964583291669</v>
+      </c>
+      <c r="F12">
+        <v>0.849095441935064</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.6539118311449917</v>
+      </c>
+      <c r="L12">
+        <v>0.6596048096008602</v>
+      </c>
+      <c r="M12">
+        <v>0.8627990539573663</v>
+      </c>
+      <c r="N12">
+        <v>0.6548404609499529</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>0.8999705214319033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="C13">
+        <v>0.6084950756541423</v>
+      </c>
+      <c r="E13">
+        <v>0.6394964583291669</v>
+      </c>
+      <c r="F13">
+        <v>0.849095441935064</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.6539118311449917</v>
+      </c>
+      <c r="L13">
+        <v>0.6596048096008602</v>
+      </c>
+      <c r="M13">
+        <v>0.8627990539573663</v>
+      </c>
+      <c r="N13">
+        <v>0.6548404609499529</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>0.8999705214319033</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="C14">
+        <v>0.6084950756541423</v>
+      </c>
+      <c r="E14">
+        <v>0.6394964583291669</v>
+      </c>
+      <c r="F14">
+        <v>0.849095441935064</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.6539118311449917</v>
+      </c>
+      <c r="L14">
+        <v>0.6596048096008602</v>
+      </c>
+      <c r="M14">
+        <v>0.8627990539573663</v>
+      </c>
+      <c r="N14">
+        <v>0.6548404609499529</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>0.8999705214319033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="C15">
+        <v>0.6084950756541423</v>
+      </c>
+      <c r="E15">
+        <v>0.6394964583291669</v>
+      </c>
+      <c r="F15">
+        <v>0.849095441935064</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.6539118311449917</v>
+      </c>
+      <c r="L15">
+        <v>0.6596048096008602</v>
+      </c>
+      <c r="M15">
+        <v>0.8627990539573663</v>
+      </c>
+      <c r="N15">
+        <v>0.6548404609499529</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>0.8999705214319033</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>0.6084950756541423</v>
+      </c>
+      <c r="E16">
+        <v>0.6394964583291669</v>
+      </c>
+      <c r="F16">
+        <v>0.849095441935064</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.6539118311449917</v>
+      </c>
+      <c r="L16">
+        <v>0.6596048096008602</v>
+      </c>
+      <c r="M16">
+        <v>0.8627990539573663</v>
+      </c>
+      <c r="N16">
+        <v>0.6548404609499529</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>0.8999705214319033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>0.6084950756541423</v>
+      </c>
+      <c r="E17">
+        <v>0.6394964583291669</v>
+      </c>
+      <c r="F17">
+        <v>0.849095441935064</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.6539118311449917</v>
+      </c>
+      <c r="L17">
+        <v>0.6596048096008602</v>
+      </c>
+      <c r="M17">
+        <v>0.8627990539573663</v>
+      </c>
+      <c r="N17">
+        <v>0.6548404609499529</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>0.8999705214319033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>0.6084950756541423</v>
+      </c>
+      <c r="E18">
+        <v>0.6394964583291669</v>
+      </c>
+      <c r="F18">
+        <v>0.849095441935064</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.6539118311449917</v>
+      </c>
+      <c r="L18">
+        <v>0.6596048096008602</v>
+      </c>
+      <c r="M18">
+        <v>0.8627990539573663</v>
+      </c>
+      <c r="N18">
+        <v>0.6548404609499529</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>0.8999705214319033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>0.6084950756541423</v>
+      </c>
+      <c r="E19">
+        <v>0.6394964583291669</v>
+      </c>
+      <c r="F19">
+        <v>0.849095441935064</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.6539118311449917</v>
+      </c>
+      <c r="L19">
+        <v>0.6596048096008602</v>
+      </c>
+      <c r="M19">
+        <v>0.8627990539573663</v>
+      </c>
+      <c r="N19">
+        <v>0.6548404609499529</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>0.8999705214319033</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>0.6084950756541423</v>
+      </c>
+      <c r="E20">
+        <v>0.6394964583291669</v>
+      </c>
+      <c r="F20">
+        <v>0.849095441935064</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.6539118311449917</v>
+      </c>
+      <c r="L20">
+        <v>0.6596048096008602</v>
+      </c>
+      <c r="M20">
+        <v>0.8627990539573663</v>
+      </c>
+      <c r="N20">
+        <v>0.6548404609499529</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>0.8999705214319033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>0.6084950756541423</v>
+      </c>
+      <c r="E21">
+        <v>0.6394964583291669</v>
+      </c>
+      <c r="F21">
+        <v>0.849095441935064</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.6539118311449917</v>
+      </c>
+      <c r="L21">
+        <v>0.6596048096008602</v>
+      </c>
+      <c r="M21">
+        <v>0.8627990539573663</v>
+      </c>
+      <c r="N21">
+        <v>0.6548404609499529</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>0.8999705214319033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>0.6084950756541423</v>
+      </c>
+      <c r="E22">
+        <v>0.6394964583291669</v>
+      </c>
+      <c r="F22">
+        <v>0.849095441935064</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.6539118311449917</v>
+      </c>
+      <c r="L22">
+        <v>0.6596048096008602</v>
+      </c>
+      <c r="M22">
+        <v>0.8627990539573663</v>
+      </c>
+      <c r="N22">
+        <v>0.6548404609499529</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>0.8999705214319033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>0.6084950756541423</v>
+      </c>
+      <c r="E23">
+        <v>0.6394964583291669</v>
+      </c>
+      <c r="F23">
+        <v>0.849095441935064</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.6539118311449917</v>
+      </c>
+      <c r="L23">
+        <v>0.6596048096008602</v>
+      </c>
+      <c r="M23">
+        <v>0.8627990539573663</v>
+      </c>
+      <c r="N23">
+        <v>0.6548404609499529</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>0.8999705214319033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>0.6084950756541423</v>
+      </c>
+      <c r="E24">
+        <v>0.6394964583291669</v>
+      </c>
+      <c r="F24">
+        <v>0.849095441935064</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.6539118311449917</v>
+      </c>
+      <c r="L24">
+        <v>0.6596048096008602</v>
+      </c>
+      <c r="M24">
+        <v>0.8627990539573663</v>
+      </c>
+      <c r="N24">
+        <v>0.6548404609499529</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>0.8999705214319033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.6084950756541423</v>
+      </c>
+      <c r="E25">
+        <v>0.6394964583291669</v>
+      </c>
+      <c r="F25">
+        <v>0.849095441935064</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.6539118311449917</v>
+      </c>
+      <c r="L25">
+        <v>0.6596048096008602</v>
+      </c>
+      <c r="M25">
+        <v>0.8627990539573663</v>
+      </c>
+      <c r="N25">
+        <v>0.6548404609499529</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>0.8999705214319033</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_bus/vm_pu.xlsx
@@ -430,860 +430,1271 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.021407137571008</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.049218091002028</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.035471555179087</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.047868929329374</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.060524683645873</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.042965888041677</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.060031819683521</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.046457881212053</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.058699348089405</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.017713525996659</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.055028843771097</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.053517774255461</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.5405611111984063</v>
+        <v>1.025727973410628</v>
+      </c>
+      <c r="D3">
+        <v>1.051583480787806</v>
       </c>
       <c r="E3">
-        <v>0.5782639761548449</v>
+        <v>1.038777399269423</v>
       </c>
       <c r="F3">
-        <v>0.8221303822350252</v>
+        <v>1.05076883983207</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.06168684719444</v>
+      </c>
       <c r="J3">
-        <v>0.592756239606017</v>
+        <v>1.045541020391679</v>
+      </c>
+      <c r="K3">
+        <v>1.06159629052507</v>
       </c>
       <c r="L3">
-        <v>0.600285752358429</v>
+        <v>1.048937039736452</v>
       </c>
       <c r="M3">
-        <v>0.8356908968666995</v>
+        <v>1.06079085860202</v>
       </c>
       <c r="N3">
-        <v>0.5935980214563484</v>
+        <v>1.018613162938325</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>0.8785100903366398</v>
+        <v>1.056684099808795</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.054621335142988</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.4934668583464875</v>
+        <v>1.028470970173586</v>
+      </c>
+      <c r="D4">
+        <v>1.053090879386178</v>
       </c>
       <c r="E4">
-        <v>0.5368246330199393</v>
+        <v>1.040882373814711</v>
       </c>
       <c r="F4">
-        <v>0.8041975854033987</v>
+        <v>1.052617585095877</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.06241564727053</v>
+      </c>
       <c r="J4">
-        <v>0.5508385491441281</v>
+        <v>1.047173397632962</v>
+      </c>
+      <c r="K4">
+        <v>1.062588140167675</v>
       </c>
       <c r="L4">
-        <v>0.5600430914331276</v>
+        <v>1.050511206014636</v>
       </c>
       <c r="M4">
-        <v>0.8174200960657254</v>
+        <v>1.062119876966733</v>
       </c>
       <c r="N4">
-        <v>0.5516208030659775</v>
+        <v>1.019183252070199</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>0.8640451477806863</v>
+        <v>1.05773590507575</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.055323507556001</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.476024001535919</v>
+        <v>1.029614665777506</v>
+      </c>
+      <c r="D5">
+        <v>1.053724368399171</v>
       </c>
       <c r="E5">
-        <v>0.5217680931895311</v>
+        <v>1.04176236554967</v>
       </c>
       <c r="F5">
-        <v>0.7977252737062015</v>
+        <v>1.053391544608931</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.062719149436085</v>
+      </c>
       <c r="J5">
-        <v>0.535456808161392</v>
+        <v>1.047854474192999</v>
+      </c>
+      <c r="K5">
+        <v>1.063005457390533</v>
       </c>
       <c r="L5">
-        <v>0.5453954071548016</v>
+        <v>1.051168951094035</v>
       </c>
       <c r="M5">
-        <v>0.8107764458959532</v>
+        <v>1.062676078291535</v>
       </c>
       <c r="N5">
-        <v>0.5362172182467355</v>
+        <v>1.019421931987547</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>0.8587852419199119</v>
+        <v>1.058176090801595</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.055625596868072</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.4731900483114623</v>
+        <v>1.029809375035395</v>
+      </c>
+      <c r="D6">
+        <v>1.053836722351361</v>
       </c>
       <c r="E6">
-        <v>0.5193395870002666</v>
+        <v>1.041913292320683</v>
       </c>
       <c r="F6">
-        <v>0.7966828138477835</v>
+        <v>1.05352499303733</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.062772906310383</v>
+      </c>
       <c r="J6">
-        <v>0.5329666267741521</v>
+        <v>1.047971680262378</v>
+      </c>
+      <c r="K6">
+        <v>1.063081486020731</v>
       </c>
       <c r="L6">
-        <v>0.5430312774307307</v>
+        <v>1.051282576990403</v>
       </c>
       <c r="M6">
-        <v>0.8097038986162086</v>
+        <v>1.062772968441905</v>
       </c>
       <c r="N6">
-        <v>0.5337235005162979</v>
+        <v>1.019464067093882</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>0.8579360780175866</v>
+        <v>1.058252771033938</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.055687917609055</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.4932267332032958</v>
+        <v>1.028495429810665</v>
+      </c>
+      <c r="D7">
+        <v>1.053116258730759</v>
       </c>
       <c r="E7">
-        <v>0.5366161511335052</v>
+        <v>1.040903958662299</v>
       </c>
       <c r="F7">
-        <v>0.8041078416016324</v>
+        <v>1.052638342891409</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.062428074189232</v>
+      </c>
       <c r="J7">
-        <v>0.5506261955498162</v>
+        <v>1.047191442413699</v>
+      </c>
+      <c r="K7">
+        <v>1.062610449188156</v>
       </c>
       <c r="L7">
-        <v>0.5598403781086346</v>
+        <v>1.050529710513683</v>
       </c>
       <c r="M7">
-        <v>0.8173281576910008</v>
+        <v>1.062137611608831</v>
       </c>
       <c r="N7">
-        <v>0.5514081479052043</v>
+        <v>1.019192476463824</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>0.8639723589424019</v>
+        <v>1.057749940530402</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.055358980205609</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.6084950756541423</v>
+        <v>1.022890109715935</v>
+      </c>
+      <c r="D8">
+        <v>1.05004324263694</v>
       </c>
       <c r="E8">
-        <v>0.6394964583291669</v>
+        <v>1.036608367432441</v>
       </c>
       <c r="F8">
-        <v>0.849095441935064</v>
+        <v>1.04886772704287</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.060932629893312</v>
+      </c>
       <c r="J8">
-        <v>0.6539118311449917</v>
+        <v>1.043854531909507</v>
+      </c>
+      <c r="K8">
+        <v>1.060585470983525</v>
       </c>
       <c r="L8">
-        <v>0.6596048096008602</v>
+        <v>1.047314277278659</v>
       </c>
       <c r="M8">
-        <v>0.8627990539573663</v>
+        <v>1.059424069322175</v>
       </c>
       <c r="N8">
-        <v>0.6548404609499529</v>
+        <v>1.018027823566351</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>0.8999705214319033</v>
+        <v>1.055602400557339</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.053931684899754</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.6084950756541423</v>
+        <v>1.012573345025647</v>
+      </c>
+      <c r="D9">
+        <v>1.044417185934087</v>
       </c>
       <c r="E9">
-        <v>0.6394964583291669</v>
+        <v>1.028750007433549</v>
       </c>
       <c r="F9">
-        <v>0.849095441935064</v>
+        <v>1.041985620569139</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.058101489307344</v>
+      </c>
       <c r="J9">
-        <v>0.6539118311449917</v>
+        <v>1.037689787188091</v>
+      </c>
+      <c r="K9">
+        <v>1.056828505429616</v>
       </c>
       <c r="L9">
-        <v>0.6596048096008602</v>
+        <v>1.041393242394469</v>
       </c>
       <c r="M9">
-        <v>0.8627990539573663</v>
+        <v>1.054432353484165</v>
       </c>
       <c r="N9">
-        <v>0.6548404609499529</v>
+        <v>1.015869978740521</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>0.8999705214319033</v>
+        <v>1.051651862406204</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.051272249580012</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.6084950756541423</v>
+        <v>1.005457763294959</v>
+      </c>
+      <c r="D10">
+        <v>1.040601340670526</v>
       </c>
       <c r="E10">
-        <v>0.6394964583291669</v>
+        <v>1.023396280488762</v>
       </c>
       <c r="F10">
-        <v>0.849095441935064</v>
+        <v>1.037343905860629</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.056127828060813</v>
+      </c>
       <c r="J10">
-        <v>0.6539118311449917</v>
+        <v>1.033456502472847</v>
+      </c>
+      <c r="K10">
+        <v>1.054274279611274</v>
       </c>
       <c r="L10">
-        <v>0.6596048096008602</v>
+        <v>1.037355577512983</v>
       </c>
       <c r="M10">
-        <v>0.8627990539573663</v>
+        <v>1.051070123515911</v>
       </c>
       <c r="N10">
-        <v>0.6548404609499529</v>
+        <v>1.01440281041436</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>0.8999705214319033</v>
+        <v>1.049041705844959</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.049482812217158</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.6084950756541423</v>
+        <v>1.002900013408535</v>
+      </c>
+      <c r="D11">
+        <v>1.039445043237515</v>
       </c>
       <c r="E11">
-        <v>0.6394964583291669</v>
+        <v>1.021700675248308</v>
       </c>
       <c r="F11">
-        <v>0.849095441935064</v>
+        <v>1.03614384271434</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.055582975709977</v>
+      </c>
       <c r="J11">
-        <v>0.6539118311449917</v>
+        <v>1.032152644109843</v>
+      </c>
+      <c r="K11">
+        <v>1.05365954449913</v>
       </c>
       <c r="L11">
-        <v>0.6596048096008602</v>
+        <v>1.03622463262948</v>
       </c>
       <c r="M11">
-        <v>0.8627990539573663</v>
+        <v>1.050414878343413</v>
       </c>
       <c r="N11">
-        <v>0.6548404609499529</v>
+        <v>1.014072688053304</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>0.8999705214319033</v>
+        <v>1.048954157191165</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.049080416828723</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.6084950756541423</v>
+        <v>1.002153409083339</v>
+      </c>
+      <c r="D12">
+        <v>1.039191045441354</v>
       </c>
       <c r="E12">
-        <v>0.6394964583291669</v>
+        <v>1.021302634102413</v>
       </c>
       <c r="F12">
-        <v>0.849095441935064</v>
+        <v>1.035995363631073</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.055493848779863</v>
+      </c>
       <c r="J12">
-        <v>0.6539118311449917</v>
+        <v>1.031866911554468</v>
+      </c>
+      <c r="K12">
+        <v>1.053604047149459</v>
       </c>
       <c r="L12">
-        <v>0.6596048096008602</v>
+        <v>1.03603278119704</v>
       </c>
       <c r="M12">
-        <v>0.8627990539573663</v>
+        <v>1.050463981179725</v>
       </c>
       <c r="N12">
-        <v>0.6548404609499529</v>
+        <v>1.014068234166792</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>0.8999705214319033</v>
+        <v>1.049315857222878</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.049041179763493</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.6084950756541423</v>
+        <v>1.002767733968541</v>
+      </c>
+      <c r="D13">
+        <v>1.039638192842693</v>
       </c>
       <c r="E13">
-        <v>0.6394964583291669</v>
+        <v>1.021893330451177</v>
       </c>
       <c r="F13">
-        <v>0.849095441935064</v>
+        <v>1.036669855506129</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.055766602435908</v>
+      </c>
       <c r="J13">
-        <v>0.6539118311449917</v>
+        <v>1.032363224084121</v>
+      </c>
+      <c r="K13">
+        <v>1.054001826767242</v>
       </c>
       <c r="L13">
-        <v>0.6596048096008602</v>
+        <v>1.036570106743543</v>
       </c>
       <c r="M13">
-        <v>0.8627990539573663</v>
+        <v>1.051084904976419</v>
       </c>
       <c r="N13">
-        <v>0.6548404609499529</v>
+        <v>1.014323885828489</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>0.8999705214319033</v>
+        <v>1.050080814243219</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.049319967300926</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.6084950756541423</v>
+        <v>1.003812618617485</v>
+      </c>
+      <c r="D14">
+        <v>1.040269959250161</v>
       </c>
       <c r="E14">
-        <v>0.6394964583291669</v>
+        <v>1.022752940999179</v>
       </c>
       <c r="F14">
-        <v>0.849095441935064</v>
+        <v>1.037514143838336</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.056121031692486</v>
+      </c>
       <c r="J14">
-        <v>0.6539118311449917</v>
+        <v>1.033063072568256</v>
+      </c>
+      <c r="K14">
+        <v>1.054486433066761</v>
       </c>
       <c r="L14">
-        <v>0.6596048096008602</v>
+        <v>1.037274582137003</v>
       </c>
       <c r="M14">
-        <v>0.8627990539573663</v>
+        <v>1.051777744378969</v>
       </c>
       <c r="N14">
-        <v>0.6548404609499529</v>
+        <v>1.014619936466192</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>0.8999705214319033</v>
+        <v>1.050800346923827</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.04966398561427</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.6084950756541423</v>
+        <v>1.004369103513775</v>
+      </c>
+      <c r="D15">
+        <v>1.040586294004478</v>
       </c>
       <c r="E15">
-        <v>0.6394964583291669</v>
+        <v>1.023186398111948</v>
       </c>
       <c r="F15">
-        <v>0.849095441935064</v>
+        <v>1.037912387184279</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.056291728387019</v>
+      </c>
       <c r="J15">
-        <v>0.6539118311449917</v>
+        <v>1.033411249365043</v>
+      </c>
+      <c r="K15">
+        <v>1.054713449765984</v>
       </c>
       <c r="L15">
-        <v>0.6596048096008602</v>
+        <v>1.037614335370539</v>
       </c>
       <c r="M15">
-        <v>0.8627990539573663</v>
+        <v>1.052084918274144</v>
       </c>
       <c r="N15">
-        <v>0.6548404609499529</v>
+        <v>1.014752558564905</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>0.8999705214319033</v>
+        <v>1.051080383704923</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.049830247571469</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.6084950756541423</v>
+        <v>1.007271239252395</v>
+      </c>
+      <c r="D16">
+        <v>1.042127906507787</v>
       </c>
       <c r="E16">
-        <v>0.6394964583291669</v>
+        <v>1.02534719172114</v>
       </c>
       <c r="F16">
-        <v>0.849095441935064</v>
+        <v>1.039775969012365</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.057096205267407</v>
+      </c>
       <c r="J16">
-        <v>0.6539118311449917</v>
+        <v>1.03512343581244</v>
+      </c>
+      <c r="K16">
+        <v>1.055741454032178</v>
       </c>
       <c r="L16">
-        <v>0.6596048096008602</v>
+        <v>1.039238014996072</v>
       </c>
       <c r="M16">
-        <v>0.8627990539573663</v>
+        <v>1.053427685890257</v>
       </c>
       <c r="N16">
-        <v>0.6548404609499529</v>
+        <v>1.015329974682513</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>0.8999705214319033</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.052103311191257</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.050560163736776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.6084950756541423</v>
+        <v>1.00895095106373</v>
+      </c>
+      <c r="D17">
+        <v>1.042980397002146</v>
       </c>
       <c r="E17">
-        <v>0.6394964583291669</v>
+        <v>1.026555705755043</v>
       </c>
       <c r="F17">
-        <v>0.849095441935064</v>
+        <v>1.040760259628661</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.057524954211998</v>
+      </c>
       <c r="J17">
-        <v>0.6539118311449917</v>
+        <v>1.036069450464708</v>
+      </c>
+      <c r="K17">
+        <v>1.05627457576341</v>
       </c>
       <c r="L17">
-        <v>0.6596048096008602</v>
+        <v>1.040113605025553</v>
       </c>
       <c r="M17">
-        <v>0.8627990539573663</v>
+        <v>1.054089462668954</v>
       </c>
       <c r="N17">
-        <v>0.6548404609499529</v>
+        <v>1.015617669288988</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>0.8999705214319033</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.052498498937855</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.050939626014532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.6084950756541423</v>
+        <v>1.009722350004915</v>
+      </c>
+      <c r="D18">
+        <v>1.043291540503127</v>
       </c>
       <c r="E18">
-        <v>0.6394964583291669</v>
+        <v>1.027030635864626</v>
       </c>
       <c r="F18">
-        <v>0.849095441935064</v>
+        <v>1.041038465034567</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.057656259384592</v>
+      </c>
       <c r="J18">
-        <v>0.6539118311449917</v>
+        <v>1.03642302436364</v>
+      </c>
+      <c r="K18">
+        <v>1.056402624758577</v>
       </c>
       <c r="L18">
-        <v>0.6596048096008602</v>
+        <v>1.040398545742516</v>
       </c>
       <c r="M18">
-        <v>0.8627990539573663</v>
+        <v>1.054184522471203</v>
       </c>
       <c r="N18">
-        <v>0.6548404609499529</v>
+        <v>1.015670421890095</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>0.8999705214319033</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.052338341396644</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.051018746052356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.6084950756541423</v>
+        <v>1.009674171579665</v>
+      </c>
+      <c r="D19">
+        <v>1.043131020509321</v>
       </c>
       <c r="E19">
-        <v>0.6394964583291669</v>
+        <v>1.026843606818798</v>
       </c>
       <c r="F19">
-        <v>0.849095441935064</v>
+        <v>1.040681194196331</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.057526570939357</v>
+      </c>
       <c r="J19">
-        <v>0.6539118311449917</v>
+        <v>1.036244095863716</v>
+      </c>
+      <c r="K19">
+        <v>1.056183809678124</v>
       </c>
       <c r="L19">
-        <v>0.6596048096008602</v>
+        <v>1.040152383071164</v>
       </c>
       <c r="M19">
-        <v>0.8627990539573663</v>
+        <v>1.053771832903112</v>
       </c>
       <c r="N19">
-        <v>0.6548404609499529</v>
+        <v>1.015520620275469</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>0.8999705214319033</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.051690238660333</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.050870314787018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.6084950756541423</v>
+        <v>1.007329506475502</v>
+      </c>
+      <c r="D20">
+        <v>1.041632196763498</v>
       </c>
       <c r="E20">
-        <v>0.6394964583291669</v>
+        <v>1.024810650360254</v>
       </c>
       <c r="F20">
-        <v>0.849095441935064</v>
+        <v>1.03857447504015</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.056664990048674</v>
+      </c>
       <c r="J20">
-        <v>0.6539118311449917</v>
+        <v>1.034580782712852</v>
+      </c>
+      <c r="K20">
+        <v>1.054980471711594</v>
       </c>
       <c r="L20">
-        <v>0.6596048096008602</v>
+        <v>1.038430826326191</v>
       </c>
       <c r="M20">
-        <v>0.8627990539573663</v>
+        <v>1.051971335010366</v>
       </c>
       <c r="N20">
-        <v>0.6548404609499529</v>
+        <v>1.014801794362274</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>0.8999705214319033</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.049744494361041</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.050023387554627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.6084950756541423</v>
+        <v>1.001860915108604</v>
+      </c>
+      <c r="D21">
+        <v>1.038668780288917</v>
       </c>
       <c r="E21">
-        <v>0.6394964583291669</v>
+        <v>1.020666926229182</v>
       </c>
       <c r="F21">
-        <v>0.849095441935064</v>
+        <v>1.034933611131974</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.055097433837536</v>
+      </c>
       <c r="J21">
-        <v>0.6539118311449917</v>
+        <v>1.031281037744662</v>
+      </c>
+      <c r="K21">
+        <v>1.052952813586346</v>
       </c>
       <c r="L21">
-        <v>0.6596048096008602</v>
+        <v>1.035267057816238</v>
       </c>
       <c r="M21">
-        <v>0.8627990539573663</v>
+        <v>1.049282061152557</v>
       </c>
       <c r="N21">
-        <v>0.6548404609499529</v>
+        <v>1.013634921317317</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>0.8999705214319033</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.047575802023821</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.04859297554013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.6084950756541423</v>
+        <v>0.9983739010487266</v>
+      </c>
+      <c r="D22">
+        <v>1.036789293333952</v>
       </c>
       <c r="E22">
-        <v>0.6394964583291669</v>
+        <v>1.018044294848364</v>
       </c>
       <c r="F22">
-        <v>0.849095441935064</v>
+        <v>1.032648017047579</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.054094656445343</v>
+      </c>
       <c r="J22">
-        <v>0.6539118311449917</v>
+        <v>1.029185631398847</v>
+      </c>
+      <c r="K22">
+        <v>1.051665556589529</v>
       </c>
       <c r="L22">
-        <v>0.6596048096008602</v>
+        <v>1.03326657016811</v>
       </c>
       <c r="M22">
-        <v>0.8627990539573663</v>
+        <v>1.04759931685867</v>
       </c>
       <c r="N22">
-        <v>0.6548404609499529</v>
+        <v>1.012897131137962</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>0.8999705214319033</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.046244034445701</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.047669599008315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.6084950756541423</v>
+        <v>1.000220878088858</v>
+      </c>
+      <c r="D23">
+        <v>1.037773723756471</v>
       </c>
       <c r="E23">
-        <v>0.6394964583291669</v>
+        <v>1.019429681483308</v>
       </c>
       <c r="F23">
-        <v>0.849095441935064</v>
+        <v>1.033853958705561</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.054621718897641</v>
+      </c>
       <c r="J23">
-        <v>0.6539118311449917</v>
+        <v>1.030292421007847</v>
+      </c>
+      <c r="K23">
+        <v>1.052335893404517</v>
       </c>
       <c r="L23">
-        <v>0.6596048096008602</v>
+        <v>1.034321681411572</v>
       </c>
       <c r="M23">
-        <v>0.8627990539573663</v>
+        <v>1.048485330864517</v>
       </c>
       <c r="N23">
-        <v>0.6548404609499529</v>
+        <v>1.013283566031013</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>0.8999705214319033</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.046945249262029</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.048134078018732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.6084950756541423</v>
+        <v>1.007347201888516</v>
+      </c>
+      <c r="D24">
+        <v>1.041606392024041</v>
       </c>
       <c r="E24">
-        <v>0.6394964583291669</v>
+        <v>1.02479840272178</v>
       </c>
       <c r="F24">
-        <v>0.849095441935064</v>
+        <v>1.038535459587294</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.056645655490074</v>
+      </c>
       <c r="J24">
-        <v>0.6539118311449917</v>
+        <v>1.034565331504983</v>
+      </c>
+      <c r="K24">
+        <v>1.054940231471258</v>
       </c>
       <c r="L24">
-        <v>0.6596048096008602</v>
+        <v>1.038403589872663</v>
       </c>
       <c r="M24">
-        <v>0.8627990539573663</v>
+        <v>1.05191803566571</v>
       </c>
       <c r="N24">
-        <v>0.6548404609499529</v>
+        <v>1.014780704681599</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>0.8999705214319033</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.049661975960828</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.049968042190906</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.6084950756541423</v>
+        <v>1.015308620865353</v>
+      </c>
+      <c r="D25">
+        <v>1.045920792342767</v>
       </c>
       <c r="E25">
-        <v>0.6394964583291669</v>
+        <v>1.030831684483352</v>
       </c>
       <c r="F25">
-        <v>0.849095441935064</v>
+        <v>1.043808738305823</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.058868808523116</v>
+      </c>
       <c r="J25">
-        <v>0.6539118311449917</v>
+        <v>1.039331548346171</v>
+      </c>
+      <c r="K25">
+        <v>1.057845744562419</v>
       </c>
       <c r="L25">
-        <v>0.6596048096008602</v>
+        <v>1.042969515289448</v>
       </c>
       <c r="M25">
-        <v>0.8627990539573663</v>
+        <v>1.055763020093059</v>
       </c>
       <c r="N25">
-        <v>0.6548404609499529</v>
+        <v>1.016449878590318</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>0.8999705214319033</v>
+        <v>1.052704979102423</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.052019506854549</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021407137571008</v>
+        <v>1.020042700463785</v>
       </c>
       <c r="D2">
-        <v>1.049218091002028</v>
+        <v>1.045338731730463</v>
       </c>
       <c r="E2">
-        <v>1.035471555179087</v>
+        <v>1.034023169497103</v>
       </c>
       <c r="F2">
-        <v>1.047868929329374</v>
+        <v>1.045693916533585</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.060524683645873</v>
+        <v>1.058702200675827</v>
       </c>
       <c r="J2">
-        <v>1.042965888041677</v>
+        <v>1.041640028519729</v>
       </c>
       <c r="K2">
-        <v>1.060031819683521</v>
+        <v>1.056200595542805</v>
       </c>
       <c r="L2">
-        <v>1.046457881212053</v>
+        <v>1.045028014978439</v>
       </c>
       <c r="M2">
-        <v>1.058699348089405</v>
+        <v>1.056551354704191</v>
       </c>
       <c r="N2">
-        <v>1.017713525996659</v>
+        <v>1.017889754896851</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.055028843771097</v>
+        <v>1.053328882498737</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.053517774255461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.050817475843147</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026835314605419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025727973410628</v>
+        <v>1.024207894715137</v>
       </c>
       <c r="D3">
-        <v>1.051583480787806</v>
+        <v>1.047486358566686</v>
       </c>
       <c r="E3">
-        <v>1.038777399269423</v>
+        <v>1.037184332570602</v>
       </c>
       <c r="F3">
-        <v>1.05076883983207</v>
+        <v>1.048444570767568</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.06168684719444</v>
+        <v>1.059741973008981</v>
       </c>
       <c r="J3">
-        <v>1.045541020391679</v>
+        <v>1.04405969833641</v>
       </c>
       <c r="K3">
-        <v>1.06159629052507</v>
+        <v>1.057545662861201</v>
       </c>
       <c r="L3">
-        <v>1.048937039736452</v>
+        <v>1.047362552272471</v>
       </c>
       <c r="M3">
-        <v>1.06079085860202</v>
+        <v>1.058492961025142</v>
       </c>
       <c r="N3">
-        <v>1.018613162938325</v>
+        <v>1.018556667484299</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.056684099808795</v>
+        <v>1.05486550543722</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.054621335142988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.051765631829626</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.027100460648668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028470970173586</v>
+        <v>1.026853140244844</v>
       </c>
       <c r="D4">
-        <v>1.053090879386178</v>
+        <v>1.048855924456456</v>
       </c>
       <c r="E4">
-        <v>1.040882373814711</v>
+        <v>1.039198287779992</v>
       </c>
       <c r="F4">
-        <v>1.052617585095877</v>
+        <v>1.050199083375198</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.06241564727053</v>
+        <v>1.060393215962159</v>
       </c>
       <c r="J4">
-        <v>1.047173397632962</v>
+        <v>1.045594019500472</v>
       </c>
       <c r="K4">
-        <v>1.062588140167675</v>
+        <v>1.058398400339812</v>
       </c>
       <c r="L4">
-        <v>1.050511206014636</v>
+        <v>1.048845567385361</v>
       </c>
       <c r="M4">
-        <v>1.062119876966733</v>
+        <v>1.059727170467662</v>
       </c>
       <c r="N4">
-        <v>1.019183252070199</v>
+        <v>1.018979551871039</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.05773590507575</v>
+        <v>1.055842279862824</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.055323507556001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.052369530679164</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.027266288663491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029614665777506</v>
+        <v>1.027955985957932</v>
       </c>
       <c r="D5">
-        <v>1.053724368399171</v>
+        <v>1.049431867651089</v>
       </c>
       <c r="E5">
-        <v>1.04176236554967</v>
+        <v>1.04004019679372</v>
       </c>
       <c r="F5">
-        <v>1.053391544608931</v>
+        <v>1.050933650752856</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.062719149436085</v>
+        <v>1.060664262488692</v>
       </c>
       <c r="J5">
-        <v>1.047854474192999</v>
+        <v>1.046234037160733</v>
       </c>
       <c r="K5">
-        <v>1.063005457390533</v>
+        <v>1.058757588328889</v>
       </c>
       <c r="L5">
-        <v>1.051168951094035</v>
+        <v>1.049465141118697</v>
       </c>
       <c r="M5">
-        <v>1.062676078291535</v>
+        <v>1.060243705863399</v>
       </c>
       <c r="N5">
-        <v>1.019421931987547</v>
+        <v>1.019156541399862</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.058176090801595</v>
+        <v>1.056251074422315</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.055625596868072</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.0526312400999</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.027336381029864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029809375035395</v>
+        <v>1.028143352662093</v>
       </c>
       <c r="D6">
-        <v>1.053836722351361</v>
+        <v>1.049534222247385</v>
       </c>
       <c r="E6">
-        <v>1.041913292320683</v>
+        <v>1.040184258597405</v>
       </c>
       <c r="F6">
-        <v>1.05352499303733</v>
+        <v>1.051060132507937</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.062772906310383</v>
+        <v>1.060712314879699</v>
       </c>
       <c r="J6">
-        <v>1.047971680262378</v>
+        <v>1.046343872169603</v>
       </c>
       <c r="K6">
-        <v>1.063081486020731</v>
+        <v>1.058823520193394</v>
       </c>
       <c r="L6">
-        <v>1.051282576990403</v>
+        <v>1.049571890249916</v>
       </c>
       <c r="M6">
-        <v>1.062772968441905</v>
+        <v>1.060333585151874</v>
       </c>
       <c r="N6">
-        <v>1.019464067093882</v>
+        <v>1.019187639546289</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.058252771033938</v>
+        <v>1.0563222063387</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.055687917609055</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.052687301028365</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.027350174864063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028495429810665</v>
+        <v>1.02688753378378</v>
       </c>
       <c r="D7">
-        <v>1.053116258730759</v>
+        <v>1.048884041510505</v>
       </c>
       <c r="E7">
-        <v>1.040903958662299</v>
+        <v>1.039227850008128</v>
       </c>
       <c r="F7">
-        <v>1.052638342891409</v>
+        <v>1.050225038942366</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.062428074189232</v>
+        <v>1.060409280285973</v>
       </c>
       <c r="J7">
-        <v>1.047191442413699</v>
+        <v>1.045621745264493</v>
       </c>
       <c r="K7">
-        <v>1.062610449188156</v>
+        <v>1.058423400041018</v>
       </c>
       <c r="L7">
-        <v>1.050529710513683</v>
+        <v>1.048871954667011</v>
       </c>
       <c r="M7">
-        <v>1.062137611608831</v>
+        <v>1.059750037508933</v>
       </c>
       <c r="N7">
-        <v>1.019192476463824</v>
+        <v>1.019015889321855</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.057749940530402</v>
+        <v>1.055860377217887</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.055358980205609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.052408927565616</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.027274577831718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022890109715935</v>
+        <v>1.021507255063711</v>
       </c>
       <c r="D8">
-        <v>1.05004324263694</v>
+        <v>1.046102418857968</v>
       </c>
       <c r="E8">
-        <v>1.036608367432441</v>
+        <v>1.035139251596835</v>
       </c>
       <c r="F8">
-        <v>1.04886772704287</v>
+        <v>1.046661401467011</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.060932629893312</v>
+        <v>1.05908237036428</v>
       </c>
       <c r="J8">
-        <v>1.043854531909507</v>
+        <v>1.042509454744635</v>
       </c>
       <c r="K8">
-        <v>1.060585470983525</v>
+        <v>1.056692118374471</v>
       </c>
       <c r="L8">
-        <v>1.047314277278659</v>
+        <v>1.045863381094928</v>
       </c>
       <c r="M8">
-        <v>1.059424069322175</v>
+        <v>1.057244340463978</v>
       </c>
       <c r="N8">
-        <v>1.018027823566351</v>
+        <v>1.018213419997184</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.055602400557339</v>
+        <v>1.053877324527456</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.053931684899754</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.051189751623742</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02693847714094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012573345025647</v>
+        <v>1.011575810126947</v>
       </c>
       <c r="D9">
-        <v>1.044417185934087</v>
+        <v>1.041001966255626</v>
       </c>
       <c r="E9">
-        <v>1.028750007433549</v>
+        <v>1.027637669470529</v>
       </c>
       <c r="F9">
-        <v>1.041985620569139</v>
+        <v>1.040143320190282</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.058101489307344</v>
+        <v>1.056547381921182</v>
       </c>
       <c r="J9">
-        <v>1.037689787188091</v>
+        <v>1.036726316083417</v>
       </c>
       <c r="K9">
-        <v>1.056828505429616</v>
+        <v>1.053463084801</v>
       </c>
       <c r="L9">
-        <v>1.041393242394469</v>
+        <v>1.040297712428653</v>
       </c>
       <c r="M9">
-        <v>1.054432353484165</v>
+        <v>1.052617024394826</v>
       </c>
       <c r="N9">
-        <v>1.015869978740521</v>
+        <v>1.016627670954928</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.051651862406204</v>
+        <v>1.050215171552943</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.051272249580012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.048903291449371</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.026286755863334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005457763294959</v>
+        <v>1.004779614156328</v>
       </c>
       <c r="D10">
-        <v>1.040601340670526</v>
+        <v>1.037566771440539</v>
       </c>
       <c r="E10">
-        <v>1.023396280488762</v>
+        <v>1.022573033625833</v>
       </c>
       <c r="F10">
-        <v>1.037343905860629</v>
+        <v>1.035782251469263</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.056127828060813</v>
+        <v>1.054797335388069</v>
       </c>
       <c r="J10">
-        <v>1.033456502472847</v>
+        <v>1.032804873333201</v>
       </c>
       <c r="K10">
-        <v>1.054274279611274</v>
+        <v>1.051289330189668</v>
       </c>
       <c r="L10">
-        <v>1.037355577512983</v>
+        <v>1.036546344599029</v>
       </c>
       <c r="M10">
-        <v>1.051070123515911</v>
+        <v>1.049534164488721</v>
       </c>
       <c r="N10">
-        <v>1.01440281041436</v>
+        <v>1.015678096409788</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.049041705844959</v>
+        <v>1.047826184429327</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.049482812217158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04738454888314</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.025849044125601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002900013408535</v>
+        <v>1.002368346422903</v>
       </c>
       <c r="D11">
-        <v>1.039445043237515</v>
+        <v>1.036536028265523</v>
       </c>
       <c r="E11">
-        <v>1.021700675248308</v>
+        <v>1.020996750259908</v>
       </c>
       <c r="F11">
-        <v>1.03614384271434</v>
+        <v>1.034693685182442</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.055582975709977</v>
+        <v>1.054339560052602</v>
       </c>
       <c r="J11">
-        <v>1.032152644109843</v>
+        <v>1.031642930245351</v>
       </c>
       <c r="K11">
-        <v>1.05365954449913</v>
+        <v>1.050800323195759</v>
       </c>
       <c r="L11">
-        <v>1.03622463262948</v>
+        <v>1.035533271896321</v>
       </c>
       <c r="M11">
-        <v>1.050414878343413</v>
+        <v>1.048989702828801</v>
       </c>
       <c r="N11">
-        <v>1.014072688053304</v>
+        <v>1.015676594309141</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.048954157191165</v>
+        <v>1.047826861287889</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.049080416828723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.04707428685428</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025819141285825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002153409083339</v>
+        <v>1.001656684213384</v>
       </c>
       <c r="D12">
-        <v>1.039191045441354</v>
+        <v>1.036303881263938</v>
       </c>
       <c r="E12">
-        <v>1.021302634102413</v>
+        <v>1.020621409510284</v>
       </c>
       <c r="F12">
-        <v>1.035995363631073</v>
+        <v>1.034569784352723</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.055493848779863</v>
+        <v>1.054270063090786</v>
       </c>
       <c r="J12">
-        <v>1.031866911554468</v>
+        <v>1.031391095305139</v>
       </c>
       <c r="K12">
-        <v>1.053604047149459</v>
+        <v>1.050767110173129</v>
       </c>
       <c r="L12">
-        <v>1.03603278119704</v>
+        <v>1.035363919984604</v>
       </c>
       <c r="M12">
-        <v>1.050463981179725</v>
+        <v>1.049063355472146</v>
       </c>
       <c r="N12">
-        <v>1.014068234166792</v>
+        <v>1.015772923824298</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.049315857222878</v>
+        <v>1.048208347187178</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.049041179763493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.047050805347833</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.025858375647311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002767733968541</v>
+        <v>1.002202589529735</v>
       </c>
       <c r="D13">
-        <v>1.039638192842693</v>
+        <v>1.03668673779192</v>
       </c>
       <c r="E13">
-        <v>1.021893330451177</v>
+        <v>1.021145836932665</v>
       </c>
       <c r="F13">
-        <v>1.036669855506129</v>
+        <v>1.035192168241827</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.055766602435908</v>
+        <v>1.054503654457531</v>
       </c>
       <c r="J13">
-        <v>1.032363224084121</v>
+        <v>1.031821742248693</v>
       </c>
       <c r="K13">
-        <v>1.054001826767242</v>
+        <v>1.051101493760932</v>
       </c>
       <c r="L13">
-        <v>1.036570106743543</v>
+        <v>1.035836114803908</v>
       </c>
       <c r="M13">
-        <v>1.051084904976419</v>
+        <v>1.049632955576206</v>
       </c>
       <c r="N13">
-        <v>1.014323885828489</v>
+        <v>1.015918794204137</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.050080814243219</v>
+        <v>1.04893300469096</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.049319967300926</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.047284523090672</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025961799278857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003812618617485</v>
+        <v>1.003154321326494</v>
       </c>
       <c r="D14">
-        <v>1.040269959250161</v>
+        <v>1.037235799919032</v>
       </c>
       <c r="E14">
-        <v>1.022752940999179</v>
+        <v>1.021920674040539</v>
       </c>
       <c r="F14">
-        <v>1.037514143838336</v>
+        <v>1.035966656278595</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.056121031692486</v>
+        <v>1.054804898966856</v>
       </c>
       <c r="J14">
-        <v>1.033063072568256</v>
+        <v>1.032431930486906</v>
       </c>
       <c r="K14">
-        <v>1.054486433066761</v>
+        <v>1.051504178369019</v>
       </c>
       <c r="L14">
-        <v>1.037274582137003</v>
+        <v>1.03645715226873</v>
       </c>
       <c r="M14">
-        <v>1.051777744378969</v>
+        <v>1.050256862278747</v>
       </c>
       <c r="N14">
-        <v>1.014619936466192</v>
+        <v>1.016045076610175</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.050800346923827</v>
+        <v>1.049598204019028</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.04966398561427</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.047570757622444</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.026064107596177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004369103513775</v>
+        <v>1.003665768154311</v>
       </c>
       <c r="D15">
-        <v>1.040586294004478</v>
+        <v>1.037512996680588</v>
       </c>
       <c r="E15">
-        <v>1.023186398111948</v>
+        <v>1.022314307157637</v>
       </c>
       <c r="F15">
-        <v>1.037912387184279</v>
+        <v>1.036331222043156</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.056291728387019</v>
+        <v>1.054949757678469</v>
       </c>
       <c r="J15">
-        <v>1.033411249365043</v>
+        <v>1.032736667021806</v>
       </c>
       <c r="K15">
-        <v>1.054713449765984</v>
+        <v>1.051692331225666</v>
       </c>
       <c r="L15">
-        <v>1.037614335370539</v>
+        <v>1.036757669236141</v>
       </c>
       <c r="M15">
-        <v>1.052084918274144</v>
+        <v>1.050530727320079</v>
       </c>
       <c r="N15">
-        <v>1.014752558564905</v>
+        <v>1.01609274019242</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.051080383704923</v>
+        <v>1.049851944601479</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.049830247571469</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.047710117014466</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.026106786680625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007271239252395</v>
+        <v>1.006365130897924</v>
       </c>
       <c r="D16">
-        <v>1.042127906507787</v>
+        <v>1.038875467457265</v>
       </c>
       <c r="E16">
-        <v>1.02534719172114</v>
+        <v>1.024300004185675</v>
       </c>
       <c r="F16">
-        <v>1.039775969012365</v>
+        <v>1.038040437982926</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.057096205267407</v>
+        <v>1.055634567425835</v>
       </c>
       <c r="J16">
-        <v>1.03512343581244</v>
+        <v>1.034252480592679</v>
       </c>
       <c r="K16">
-        <v>1.055741454032178</v>
+        <v>1.052541857274962</v>
       </c>
       <c r="L16">
-        <v>1.039238014996072</v>
+        <v>1.038208519237554</v>
       </c>
       <c r="M16">
-        <v>1.053427685890257</v>
+        <v>1.051720463164817</v>
       </c>
       <c r="N16">
-        <v>1.015329974682513</v>
+        <v>1.016283664100704</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.052103311191257</v>
+        <v>1.050753876832468</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.050560163736776</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.048314151495446</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.026272947496902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00895095106373</v>
+        <v>1.007951388288974</v>
       </c>
       <c r="D17">
-        <v>1.042980397002146</v>
+        <v>1.039638175598115</v>
       </c>
       <c r="E17">
-        <v>1.026555705755043</v>
+        <v>1.025428874949387</v>
       </c>
       <c r="F17">
-        <v>1.040760259628661</v>
+        <v>1.038949931211999</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.057524954211998</v>
+        <v>1.056004459965729</v>
       </c>
       <c r="J17">
-        <v>1.036069450464708</v>
+        <v>1.035107398716958</v>
       </c>
       <c r="K17">
-        <v>1.05627457576341</v>
+        <v>1.052985153218846</v>
       </c>
       <c r="L17">
-        <v>1.040113605025553</v>
+        <v>1.039005265257416</v>
       </c>
       <c r="M17">
-        <v>1.054089462668954</v>
+        <v>1.052307835432837</v>
       </c>
       <c r="N17">
-        <v>1.015617669288988</v>
+        <v>1.016394510472147</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.052498498937855</v>
+        <v>1.051090114788134</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.050939626014532</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.048630357338532</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.026346795949741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.009722350004915</v>
+        <v>1.00870101786716</v>
       </c>
       <c r="D18">
-        <v>1.043291540503127</v>
+        <v>1.039924846927761</v>
       </c>
       <c r="E18">
-        <v>1.027030635864626</v>
+        <v>1.025888241816521</v>
       </c>
       <c r="F18">
-        <v>1.041038465034567</v>
+        <v>1.039207870188942</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.057656259384592</v>
+        <v>1.056119061541349</v>
       </c>
       <c r="J18">
-        <v>1.03642302436364</v>
+        <v>1.035439293920773</v>
       </c>
       <c r="K18">
-        <v>1.056402624758577</v>
+        <v>1.053088261957857</v>
       </c>
       <c r="L18">
-        <v>1.040398545742516</v>
+        <v>1.039274587598334</v>
       </c>
       <c r="M18">
-        <v>1.054184522471203</v>
+        <v>1.052382485668861</v>
       </c>
       <c r="N18">
-        <v>1.015670421890095</v>
+        <v>1.016397678853816</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.052338341396644</v>
+        <v>1.050913531683039</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.051018746052356</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.048690698825593</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.026336533145072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009674171579665</v>
+        <v>1.008686921511937</v>
       </c>
       <c r="D19">
-        <v>1.043131020509321</v>
+        <v>1.039795431653978</v>
       </c>
       <c r="E19">
-        <v>1.026843606818798</v>
+        <v>1.025736364914355</v>
       </c>
       <c r="F19">
-        <v>1.040681194196331</v>
+        <v>1.038875049620499</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.057526570939357</v>
+        <v>1.056007515126053</v>
       </c>
       <c r="J19">
-        <v>1.036244095863716</v>
+        <v>1.035292983826843</v>
       </c>
       <c r="K19">
-        <v>1.056183809678124</v>
+        <v>1.052899811384529</v>
       </c>
       <c r="L19">
-        <v>1.040152383071164</v>
+        <v>1.039062922108703</v>
       </c>
       <c r="M19">
-        <v>1.053771832903112</v>
+        <v>1.051993739160627</v>
       </c>
       <c r="N19">
-        <v>1.015520620275469</v>
+        <v>1.016288904993691</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.051690238660333</v>
+        <v>1.050283910274969</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.050870314787018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.048564366828386</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.026255604712339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.007329506475502</v>
+        <v>1.006529429425131</v>
       </c>
       <c r="D20">
-        <v>1.041632196763498</v>
+        <v>1.038481913488698</v>
       </c>
       <c r="E20">
-        <v>1.024810650360254</v>
+        <v>1.023878904690556</v>
       </c>
       <c r="F20">
-        <v>1.03857447504015</v>
+        <v>1.036916540025083</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.056664990048674</v>
+        <v>1.055260067817068</v>
       </c>
       <c r="J20">
-        <v>1.034580782712852</v>
+        <v>1.033810952300088</v>
       </c>
       <c r="K20">
-        <v>1.054980471711594</v>
+        <v>1.051880249914471</v>
       </c>
       <c r="L20">
-        <v>1.038430826326191</v>
+        <v>1.037514477347032</v>
       </c>
       <c r="M20">
-        <v>1.051971335010366</v>
+        <v>1.050339897021828</v>
       </c>
       <c r="N20">
-        <v>1.014801794362274</v>
+        <v>1.015856243421435</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.049744494361041</v>
+        <v>1.048453398165122</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.050023387554627</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.047847764496891</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025973333840015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.001860915108604</v>
+        <v>1.001483637530022</v>
       </c>
       <c r="D21">
-        <v>1.038668780288917</v>
+        <v>1.03588603559216</v>
       </c>
       <c r="E21">
-        <v>1.020666926229182</v>
+        <v>1.020109059875849</v>
       </c>
       <c r="F21">
-        <v>1.034933611131974</v>
+        <v>1.033596684616031</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.055097433837536</v>
+        <v>1.053937827941868</v>
       </c>
       <c r="J21">
-        <v>1.031281037744662</v>
+        <v>1.030919459168986</v>
       </c>
       <c r="K21">
-        <v>1.052952813586346</v>
+        <v>1.050218003022645</v>
       </c>
       <c r="L21">
-        <v>1.035267057816238</v>
+        <v>1.034719218754625</v>
       </c>
       <c r="M21">
-        <v>1.049282061152557</v>
+        <v>1.047968337727204</v>
       </c>
       <c r="N21">
-        <v>1.013634921317317</v>
+        <v>1.015489949792369</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.047575802023821</v>
+        <v>1.046536087359858</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.04859297554013</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.046676030127944</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02563329476347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9983739010487266</v>
+        <v>0.9982647444876412</v>
       </c>
       <c r="D22">
-        <v>1.036789293333952</v>
+        <v>1.034240244735902</v>
       </c>
       <c r="E22">
-        <v>1.018044294848364</v>
+        <v>1.017724250840577</v>
       </c>
       <c r="F22">
-        <v>1.032648017047579</v>
+        <v>1.031515686668471</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.054094656445343</v>
+        <v>1.053090616276696</v>
       </c>
       <c r="J22">
-        <v>1.029185631398847</v>
+        <v>1.029081288933346</v>
       </c>
       <c r="K22">
-        <v>1.051665556589529</v>
+        <v>1.049162602185146</v>
       </c>
       <c r="L22">
-        <v>1.03326657016811</v>
+        <v>1.032952578475641</v>
       </c>
       <c r="M22">
-        <v>1.04759931685867</v>
+        <v>1.046487639934506</v>
       </c>
       <c r="N22">
-        <v>1.012897131137962</v>
+        <v>1.015253864147944</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.046244034445701</v>
+        <v>1.045364223108073</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.047669599008315</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.045915266595965</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.025417016439425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.000220878088858</v>
+        <v>0.9999511937368066</v>
       </c>
       <c r="D23">
-        <v>1.037773723756471</v>
+        <v>1.035093564714312</v>
       </c>
       <c r="E23">
-        <v>1.019429681483308</v>
+        <v>1.018968036407298</v>
       </c>
       <c r="F23">
-        <v>1.033853958705561</v>
+        <v>1.032602350440496</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.054621718897641</v>
+        <v>1.053527672631805</v>
       </c>
       <c r="J23">
-        <v>1.030292421007847</v>
+        <v>1.030034272193886</v>
       </c>
       <c r="K23">
-        <v>1.052335893404517</v>
+        <v>1.049702978430297</v>
       </c>
       <c r="L23">
-        <v>1.034321681411572</v>
+        <v>1.0338685364493</v>
       </c>
       <c r="M23">
-        <v>1.048485330864517</v>
+        <v>1.047255963076037</v>
       </c>
       <c r="N23">
-        <v>1.013283566031013</v>
+        <v>1.015329004020625</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.046945249262029</v>
+        <v>1.0459722950408</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.048134078018732</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.046286911661585</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.025524087649811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007347201888516</v>
+        <v>1.006552538252325</v>
       </c>
       <c r="D24">
-        <v>1.041606392024041</v>
+        <v>1.038460062294827</v>
       </c>
       <c r="E24">
-        <v>1.02479840272178</v>
+        <v>1.023872432479304</v>
       </c>
       <c r="F24">
-        <v>1.038535459587294</v>
+        <v>1.036881366733091</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.056645655490074</v>
+        <v>1.055243394368208</v>
       </c>
       <c r="J24">
-        <v>1.034565331504983</v>
+        <v>1.033800666027838</v>
       </c>
       <c r="K24">
-        <v>1.054940231471258</v>
+        <v>1.051843839597216</v>
       </c>
       <c r="L24">
-        <v>1.038403589872663</v>
+        <v>1.037492901653311</v>
       </c>
       <c r="M24">
-        <v>1.05191803566571</v>
+        <v>1.050290347136094</v>
       </c>
       <c r="N24">
-        <v>1.014780704681599</v>
+        <v>1.015839139605044</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.049661975960828</v>
+        <v>1.048373784612433</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.049968042190906</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04779242945261</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025956086028517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015308620865353</v>
+        <v>1.01419098756562</v>
       </c>
       <c r="D25">
-        <v>1.045920792342767</v>
+        <v>1.042358963156853</v>
       </c>
       <c r="E25">
-        <v>1.030831684483352</v>
+        <v>1.02960952044759</v>
       </c>
       <c r="F25">
-        <v>1.043808738305823</v>
+        <v>1.041859451712562</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.058868808523116</v>
+        <v>1.057229066870526</v>
       </c>
       <c r="J25">
-        <v>1.039331548346171</v>
+        <v>1.038250027965537</v>
       </c>
       <c r="K25">
-        <v>1.057845744562419</v>
+        <v>1.054333464450085</v>
       </c>
       <c r="L25">
-        <v>1.042969515289448</v>
+        <v>1.041764939667576</v>
       </c>
       <c r="M25">
-        <v>1.055763020093059</v>
+        <v>1.053840935972526</v>
       </c>
       <c r="N25">
-        <v>1.016449878590318</v>
+        <v>1.01701720284621</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.052704979102423</v>
+        <v>1.051183802050182</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.052019506854549</v>
+        <v>1.049549548276295</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.026467474299858</v>
       </c>
     </row>
   </sheetData>
